--- a/Code/Results/Cases/Case_4_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_62/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,78 +406,81 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_4_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_62/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,125 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="B2">
+        <v>21.20971778793522</v>
+      </c>
+      <c r="C2">
+        <v>12.86313383627083</v>
+      </c>
+      <c r="D2">
+        <v>7.074097178122034</v>
+      </c>
+      <c r="E2">
+        <v>7.168210294102549</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>2.100815717113159</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>6.17996581665475</v>
+      </c>
+      <c r="M2">
+        <v>12.57290740919601</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>64.545924170329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="B3">
+        <v>19.7413179574514</v>
+      </c>
+      <c r="C3">
+        <v>11.87703918682826</v>
+      </c>
+      <c r="D3">
+        <v>6.547203336883067</v>
+      </c>
+      <c r="E3">
+        <v>7.036146474606797</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>2.11804292199177</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>6.11779669909392</v>
+      </c>
+      <c r="M3">
+        <v>12.12475882502513</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>60.80403648126412</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="B4">
+        <v>18.90310725657094</v>
+      </c>
+      <c r="C4">
+        <v>11.25269906270072</v>
+      </c>
+      <c r="D4">
+        <v>6.234467887841803</v>
+      </c>
+      <c r="E4">
+        <v>6.956097919372747</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>2.128709384591536</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>6.08363366726515</v>
+      </c>
+      <c r="M4">
+        <v>11.86051417916554</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>58.45556891282707</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="B5">
+        <v>18.5598693263627</v>
+      </c>
+      <c r="C5">
+        <v>10.99314884289383</v>
+      </c>
+      <c r="D5">
+        <v>6.117189944375101</v>
+      </c>
+      <c r="E5">
+        <v>6.923632252691192</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>2.133087151236653</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>6.070675457554916</v>
+      </c>
+      <c r="M5">
+        <v>11.75554400455093</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>57.48555859856048</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="B6">
+        <v>18.50277949209829</v>
+      </c>
+      <c r="C6">
+        <v>10.949730864515</v>
+      </c>
+      <c r="D6">
+        <v>6.097623292479872</v>
+      </c>
+      <c r="E6">
+        <v>6.918247852937506</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>2.133816189482694</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>6.068580712090103</v>
+      </c>
+      <c r="M6">
+        <v>11.73827696743447</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>57.32370422323502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="B7">
+        <v>18.89848475325792</v>
+      </c>
+      <c r="C7">
+        <v>11.24921990356405</v>
+      </c>
+      <c r="D7">
+        <v>6.232892472822752</v>
+      </c>
+      <c r="E7">
+        <v>6.955659579909542</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>2.128768288001086</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>6.083455063481575</v>
+      </c>
+      <c r="M7">
+        <v>11.8590875646325</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>58.44253966401723</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="B8">
+        <v>20.66915525872298</v>
+      </c>
+      <c r="C8">
+        <v>12.52680075290028</v>
+      </c>
+      <c r="D8">
+        <v>6.895128744192702</v>
+      </c>
+      <c r="E8">
+        <v>7.122390125086341</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>2.106742835786759</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>6.157669732091906</v>
+      </c>
+      <c r="M8">
+        <v>12.41609047876594</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>63.26609770446174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="B9">
+        <v>24.48654520181988</v>
+      </c>
+      <c r="C9">
+        <v>14.90261722938394</v>
+      </c>
+      <c r="D9">
+        <v>8.142379593984925</v>
+      </c>
+      <c r="E9">
+        <v>7.46332799741446</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>2.063791197687785</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>6.33728219326235</v>
+      </c>
+      <c r="M9">
+        <v>13.84491146059674</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>72.34470544502382</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="B10">
+        <v>27.20369490573675</v>
+      </c>
+      <c r="C10">
+        <v>16.60360497242736</v>
+      </c>
+      <c r="D10">
+        <v>9.01016598380566</v>
+      </c>
+      <c r="E10">
+        <v>7.732232177468059</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>2.031590053624861</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>6.493742734014562</v>
+      </c>
+      <c r="M10">
+        <v>15.36174741162866</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>78.84166872360109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="B11">
+        <v>28.43206540816848</v>
+      </c>
+      <c r="C11">
+        <v>17.37786521393354</v>
+      </c>
+      <c r="D11">
+        <v>9.39787044435316</v>
+      </c>
+      <c r="E11">
+        <v>7.861518750738469</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>2.016569107250514</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>6.571300106444696</v>
+      </c>
+      <c r="M11">
+        <v>16.0414302360679</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>81.78141981156058</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="B12">
+        <v>28.89740782661321</v>
+      </c>
+      <c r="C12">
+        <v>17.67223058138093</v>
+      </c>
+      <c r="D12">
+        <v>9.5440425735029</v>
+      </c>
+      <c r="E12">
+        <v>7.91180497845192</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>2.010802198043345</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>6.601700977150664</v>
+      </c>
+      <c r="M12">
+        <v>16.29802033276669</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>82.89495511319373</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="B13">
+        <v>28.79715532662096</v>
+      </c>
+      <c r="C13">
+        <v>17.60876111225678</v>
+      </c>
+      <c r="D13">
+        <v>9.512583504489614</v>
+      </c>
+      <c r="E13">
+        <v>7.900909713940295</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>2.012048180827145</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>6.595105608641746</v>
+      </c>
+      <c r="M13">
+        <v>16.24278132938392</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>82.65507170299114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="B14">
+        <v>28.47033702247534</v>
+      </c>
+      <c r="C14">
+        <v>17.40205207132157</v>
+      </c>
+      <c r="D14">
+        <v>9.409906554545968</v>
+      </c>
+      <c r="E14">
+        <v>7.865627025306805</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>2.016096406765704</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>6.573779777806382</v>
+      </c>
+      <c r="M14">
+        <v>16.06255132183767</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>81.87300711443245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="B15">
+        <v>28.27021985905747</v>
+      </c>
+      <c r="C15">
+        <v>17.27562659833632</v>
+      </c>
+      <c r="D15">
+        <v>9.346942742350576</v>
+      </c>
+      <c r="E15">
+        <v>7.844199508388611</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>2.01856494316782</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>6.560855284016869</v>
+      </c>
+      <c r="M15">
+        <v>15.95207572482209</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>81.39410095760159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>27.12336589072431</v>
+      </c>
+      <c r="C16">
+        <v>16.5531028967066</v>
+      </c>
+      <c r="D16">
+        <v>8.984716424667122</v>
+      </c>
+      <c r="E16">
+        <v>7.723949170759896</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>2.032562191984254</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>6.488811730943983</v>
+      </c>
+      <c r="M16">
+        <v>15.31717632834056</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>78.64943557594644</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>26.41865411349331</v>
+      </c>
+      <c r="C17">
+        <v>16.11068216702535</v>
+      </c>
+      <c r="D17">
+        <v>8.760933571756013</v>
+      </c>
+      <c r="E17">
+        <v>7.652170176569547</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>2.041037524095917</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>6.446322942407723</v>
+      </c>
+      <c r="M17">
+        <v>14.92548468375867</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>76.96324386291313</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>26.01250516722844</v>
+      </c>
+      <c r="C18">
+        <v>15.85617854882207</v>
+      </c>
+      <c r="D18">
+        <v>8.631528914851121</v>
+      </c>
+      <c r="E18">
+        <v>7.611516245410581</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>2.045879067026077</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>6.422477138520105</v>
+      </c>
+      <c r="M18">
+        <v>14.69917158592036</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>75.99171471154185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>25.87481594608323</v>
+      </c>
+      <c r="C19">
+        <v>15.76997264082392</v>
+      </c>
+      <c r="D19">
+        <v>8.587586126499358</v>
+      </c>
+      <c r="E19">
+        <v>7.597851304830429</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>2.047513294021741</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>6.414502099176407</v>
+      </c>
+      <c r="M19">
+        <v>14.62235164985707</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>75.66241710031203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>26.49374824208528</v>
+      </c>
+      <c r="C20">
+        <v>16.15777508712981</v>
+      </c>
+      <c r="D20">
+        <v>8.784824700805057</v>
+      </c>
+      <c r="E20">
+        <v>7.659743711443298</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>2.040138914784673</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>6.450783873131548</v>
+      </c>
+      <c r="M20">
+        <v>14.96728222614741</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>77.14289904219261</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>28.56631438045742</v>
+      </c>
+      <c r="C21">
+        <v>17.4627255997745</v>
+      </c>
+      <c r="D21">
+        <v>9.440079310788848</v>
+      </c>
+      <c r="E21">
+        <v>7.875951318814978</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>2.014909716180886</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>6.580014647641624</v>
+      </c>
+      <c r="M21">
+        <v>16.11550432490146</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>82.10268539133226</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>29.9228179866798</v>
+      </c>
+      <c r="C22">
+        <v>18.32313848312775</v>
+      </c>
+      <c r="D22">
+        <v>9.864820761739931</v>
+      </c>
+      <c r="E22">
+        <v>8.025217992183725</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1.997944909117267</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>6.670562411004104</v>
+      </c>
+      <c r="M22">
+        <v>16.86178048607156</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>85.34784513734218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>29.19812066740949</v>
+      </c>
+      <c r="C23">
+        <v>17.86278652294936</v>
+      </c>
+      <c r="D23">
+        <v>9.638301241384125</v>
+      </c>
+      <c r="E23">
+        <v>7.944690631747739</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>2.007053018234215</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>6.62163285675449</v>
+      </c>
+      <c r="M23">
+        <v>16.46358174013566</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>83.61443728661864</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>26.45980139599416</v>
+      </c>
+      <c r="C24">
+        <v>16.13648492459407</v>
+      </c>
+      <c r="D24">
+        <v>8.774025880865148</v>
+      </c>
+      <c r="E24">
+        <v>7.656317831182882</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>2.040545270914696</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>6.448765283094532</v>
+      </c>
+      <c r="M24">
+        <v>14.94838910944202</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>77.06168370756681</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>23.47226906464351</v>
+      </c>
+      <c r="C25">
+        <v>14.27060280535503</v>
+      </c>
+      <c r="D25">
+        <v>7.81449823254238</v>
+      </c>
+      <c r="E25">
+        <v>7.368698068318332</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>2.07545763045489</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>6.284696249865461</v>
+      </c>
+      <c r="M25">
+        <v>13.27333046244971</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>69.92477577903905</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_62/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.20971778793522</v>
+        <v>14.55306714349764</v>
       </c>
       <c r="C2">
-        <v>12.86313383627083</v>
+        <v>7.646945822028384</v>
       </c>
       <c r="D2">
-        <v>7.074097178122034</v>
+        <v>10.64652807088438</v>
       </c>
       <c r="E2">
-        <v>7.168210294102549</v>
+        <v>10.48935803347533</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.100815717113159</v>
+        <v>46.77175134411527</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>14.54329677663058</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.215929365379044</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>12.5168389843342</v>
       </c>
       <c r="L2">
-        <v>6.17996581665475</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>12.57290740919601</v>
+        <v>13.67996330900787</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>15.91920237754537</v>
       </c>
       <c r="O2">
-        <v>64.545924170329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.7413179574514</v>
+        <v>13.70615451094632</v>
       </c>
       <c r="C3">
-        <v>11.87703918682826</v>
+        <v>7.105524643392023</v>
       </c>
       <c r="D3">
-        <v>6.547203336883067</v>
+        <v>10.31080540114064</v>
       </c>
       <c r="E3">
-        <v>7.036146474606797</v>
+        <v>10.25798464847989</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.11804292199177</v>
+        <v>45.62558781897825</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>14.43329305837744</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5.231557959602415</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>11.85665150253501</v>
       </c>
       <c r="L3">
-        <v>6.11779669909392</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>12.12475882502513</v>
+        <v>13.21377927882655</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>16.078474226275</v>
       </c>
       <c r="O3">
-        <v>60.80403648126412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.90310725657094</v>
+        <v>13.16852529237716</v>
       </c>
       <c r="C4">
-        <v>11.25269906270072</v>
+        <v>6.755433419077601</v>
       </c>
       <c r="D4">
-        <v>6.234467887841803</v>
+        <v>10.1064808224739</v>
       </c>
       <c r="E4">
-        <v>6.956097919372747</v>
+        <v>10.12007464930449</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.128709384591536</v>
+        <v>44.94586822051888</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>14.37425266722289</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5.242862129576176</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>11.44070534635437</v>
       </c>
       <c r="L4">
-        <v>6.08363366726515</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>11.86051417916554</v>
+        <v>12.92826846316107</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>16.18075999595587</v>
       </c>
       <c r="O4">
-        <v>58.45556891282707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.5598693263627</v>
+        <v>12.94520632941394</v>
       </c>
       <c r="C5">
-        <v>10.99314884289383</v>
+        <v>6.608281671815404</v>
       </c>
       <c r="D5">
-        <v>6.117189944375101</v>
+        <v>10.0237672798724</v>
       </c>
       <c r="E5">
-        <v>6.923632252691192</v>
+        <v>10.06495541133183</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.133087151236653</v>
+        <v>44.67502204160666</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>14.35226731194146</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.247890067882359</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>11.26873755899901</v>
       </c>
       <c r="L5">
-        <v>6.070675457554916</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>11.75554400455093</v>
+        <v>12.81225034697512</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>16.2235518466549</v>
       </c>
       <c r="O5">
-        <v>57.48555859856048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.50277949209829</v>
+        <v>12.907875705224</v>
       </c>
       <c r="C6">
-        <v>10.949730864515</v>
+        <v>6.583574938864113</v>
       </c>
       <c r="D6">
-        <v>6.097623292479872</v>
+        <v>10.0100688894253</v>
       </c>
       <c r="E6">
-        <v>6.918247852937506</v>
+        <v>10.05586917005112</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.133816189482694</v>
+        <v>44.63042224226234</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>14.3487400420344</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5.248750174674126</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>11.24003998253554</v>
       </c>
       <c r="L6">
-        <v>6.068580712090103</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>11.73827696743447</v>
+        <v>12.79301006227447</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>16.2307238800814</v>
       </c>
       <c r="O6">
-        <v>57.32370422323502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.89848475325792</v>
+        <v>13.16553036315706</v>
       </c>
       <c r="C7">
-        <v>11.24921990356405</v>
+        <v>6.75346710558805</v>
       </c>
       <c r="D7">
-        <v>6.232892472822752</v>
+        <v>10.10536296033506</v>
       </c>
       <c r="E7">
-        <v>6.955659579909542</v>
+        <v>10.11932687174512</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.128768288001086</v>
+        <v>44.94219048235435</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>14.37394785227943</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.242928242322336</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>11.43839582670223</v>
       </c>
       <c r="L7">
-        <v>6.083455063481575</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>11.8590875646325</v>
+        <v>12.92670226420171</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>16.1813326337459</v>
       </c>
       <c r="O7">
-        <v>58.44253966401723</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.66915525872298</v>
+        <v>14.26481411542156</v>
       </c>
       <c r="C8">
-        <v>12.52680075290028</v>
+        <v>7.463899150822059</v>
       </c>
       <c r="D8">
-        <v>6.895128744192702</v>
+        <v>10.5304501969692</v>
       </c>
       <c r="E8">
-        <v>7.122390125086341</v>
+        <v>10.40873969727703</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.106742835786759</v>
+        <v>46.37162953929909</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>14.50356464268858</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.220958552546421</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>12.29150965404482</v>
       </c>
       <c r="L8">
-        <v>6.157669732091906</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>12.41609047876594</v>
+        <v>13.51915614986697</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>15.97317406965539</v>
       </c>
       <c r="O8">
-        <v>63.26609770446174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.48654520181988</v>
+        <v>16.27429185699356</v>
       </c>
       <c r="C9">
-        <v>14.90261722938394</v>
+        <v>8.71924509372519</v>
       </c>
       <c r="D9">
-        <v>8.142379593984925</v>
+        <v>11.37462432545425</v>
       </c>
       <c r="E9">
-        <v>7.46332799741446</v>
+        <v>11.00771816962614</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.063791197687785</v>
+        <v>49.36104349486112</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>14.82804267754991</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>5.191818665931875</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>13.948478303377</v>
       </c>
       <c r="L9">
-        <v>6.33728219326235</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>13.84491146059674</v>
+        <v>14.68099698694612</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>15.60166720055942</v>
       </c>
       <c r="O9">
-        <v>72.34470544502382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.20369490573675</v>
+        <v>17.77993683498092</v>
       </c>
       <c r="C10">
-        <v>16.60360497242736</v>
+        <v>9.560970284367434</v>
       </c>
       <c r="D10">
-        <v>9.01016598380566</v>
+        <v>11.99693764548642</v>
       </c>
       <c r="E10">
-        <v>7.732232177468059</v>
+        <v>11.46511644647141</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.031590053624861</v>
+        <v>51.66609025775731</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>15.11320314639215</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>5.17948707269698</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>15.28221479352697</v>
       </c>
       <c r="L10">
-        <v>6.493742734014562</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>15.36174741162866</v>
+        <v>15.52813399200858</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>15.35280233189426</v>
       </c>
       <c r="O10">
-        <v>78.84166872360109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.43206540816848</v>
+        <v>18.45382674264101</v>
       </c>
       <c r="C11">
-        <v>17.37786521393354</v>
+        <v>9.927225164170803</v>
       </c>
       <c r="D11">
-        <v>9.39787044435316</v>
+        <v>12.27981381583994</v>
       </c>
       <c r="E11">
-        <v>7.861518750738469</v>
+        <v>11.67665718942001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.016569107250514</v>
+        <v>52.73775421664408</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>15.25394244189539</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>5.175987067948348</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>15.86168202170462</v>
       </c>
       <c r="L11">
-        <v>6.571300106444696</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>16.0414302360679</v>
+        <v>15.91110885501758</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>15.24528566380788</v>
       </c>
       <c r="O11">
-        <v>81.78141981156058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.89740782661321</v>
+        <v>18.70469042648455</v>
       </c>
       <c r="C12">
-        <v>17.67223058138093</v>
+        <v>10.0635965675556</v>
       </c>
       <c r="D12">
-        <v>9.5440425735029</v>
+        <v>12.38686022064924</v>
       </c>
       <c r="E12">
-        <v>7.91180497845192</v>
+        <v>11.75724289060999</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.010802198043345</v>
+        <v>53.14687822217037</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>15.30889390877489</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5.174977687603295</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>16.07729939619265</v>
       </c>
       <c r="L12">
-        <v>6.601700977150664</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>16.29802033276669</v>
+        <v>16.05572915570374</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>15.20543818801927</v>
       </c>
       <c r="O12">
-        <v>82.89495511319373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.79715532662096</v>
+        <v>18.65085301146802</v>
       </c>
       <c r="C13">
-        <v>17.60876111225678</v>
+        <v>10.03432856269059</v>
       </c>
       <c r="D13">
-        <v>9.512583504489614</v>
+        <v>12.36380960159976</v>
       </c>
       <c r="E13">
-        <v>7.900909713940295</v>
+        <v>11.73986619622976</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.012048180827145</v>
+        <v>53.05861863765919</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>15.29698426512354</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>5.175180809755862</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>16.03103021951635</v>
       </c>
       <c r="L13">
-        <v>6.595105608641746</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>16.24278132938392</v>
+        <v>16.02460129118157</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>15.21398066104054</v>
       </c>
       <c r="O13">
-        <v>82.65507170299114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.47033702247534</v>
+        <v>18.47455148398193</v>
       </c>
       <c r="C14">
-        <v>17.40205207132157</v>
+        <v>9.938490605911305</v>
       </c>
       <c r="D14">
-        <v>9.409906554545968</v>
+        <v>12.28862223096497</v>
       </c>
       <c r="E14">
-        <v>7.865627025306805</v>
+        <v>11.68327748814985</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.016096406765704</v>
+        <v>52.77134670757589</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>15.25842970676748</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>5.175897616647926</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>15.87949680667349</v>
       </c>
       <c r="L14">
-        <v>6.573779777806382</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>16.06255132183767</v>
+        <v>15.92301522156825</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>15.24198971529166</v>
       </c>
       <c r="O14">
-        <v>81.87300711443245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.27021985905747</v>
+        <v>18.36600181789686</v>
       </c>
       <c r="C15">
-        <v>17.27562659833632</v>
+        <v>9.879487046759861</v>
       </c>
       <c r="D15">
-        <v>9.346942742350576</v>
+        <v>12.24255734522476</v>
       </c>
       <c r="E15">
-        <v>7.844199508388611</v>
+        <v>11.64867732631791</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.01856494316782</v>
+        <v>52.59581555921785</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>15.23503185810311</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5.176378225560328</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>15.78618473652458</v>
       </c>
       <c r="L15">
-        <v>6.560855284016869</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>15.95207572482209</v>
+        <v>15.86073677842446</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>15.259260499044</v>
       </c>
       <c r="O15">
-        <v>81.39410095760159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.12336589072431</v>
+        <v>17.73528573425828</v>
       </c>
       <c r="C16">
-        <v>16.5531028967066</v>
+        <v>9.536705718072385</v>
       </c>
       <c r="D16">
-        <v>8.984716424667122</v>
+        <v>11.97844278935494</v>
       </c>
       <c r="E16">
-        <v>7.723949170759896</v>
+        <v>11.45135976211157</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.032562191984254</v>
+        <v>51.59651710128576</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>15.10423331031543</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>5.179759315053064</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>15.2438055932246</v>
       </c>
       <c r="L16">
-        <v>6.488811730943983</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>15.31717632834056</v>
+        <v>15.50305195992765</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>15.35994730659902</v>
       </c>
       <c r="O16">
-        <v>78.64943557594644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.41865411349331</v>
+        <v>17.34054915802339</v>
       </c>
       <c r="C17">
-        <v>16.11068216702535</v>
+        <v>9.322205974729611</v>
       </c>
       <c r="D17">
-        <v>8.760933571756013</v>
+        <v>11.81632752547911</v>
       </c>
       <c r="E17">
-        <v>7.652170176569547</v>
+        <v>11.33118431365115</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.041037524095917</v>
+        <v>50.98937157603221</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>15.02686502540474</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>5.182382518419073</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>14.90416498575824</v>
       </c>
       <c r="L17">
-        <v>6.446322942407723</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>14.92548468375867</v>
+        <v>15.28296217896722</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>15.42320553820043</v>
       </c>
       <c r="O17">
-        <v>76.96324386291313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.01250516722844</v>
+        <v>17.11060434909227</v>
       </c>
       <c r="C18">
-        <v>15.85617854882207</v>
+        <v>9.197259500261055</v>
       </c>
       <c r="D18">
-        <v>8.631528914851121</v>
+        <v>11.72306428534878</v>
       </c>
       <c r="E18">
-        <v>7.611516245410581</v>
+        <v>11.2623897071575</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.045879067026077</v>
+        <v>50.64232892775667</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>14.98339746435006</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>5.184089077949084</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>14.70624048091688</v>
       </c>
       <c r="L18">
-        <v>6.422477138520105</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>14.69917158592036</v>
+        <v>15.15614954651485</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>15.46012258598906</v>
       </c>
       <c r="O18">
-        <v>75.99171471154185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.87481594608323</v>
+        <v>17.03224757231204</v>
       </c>
       <c r="C19">
-        <v>15.76997264082392</v>
+        <v>9.154682672286459</v>
       </c>
       <c r="D19">
-        <v>8.587586126499358</v>
+        <v>11.69148521175111</v>
       </c>
       <c r="E19">
-        <v>7.597851304830429</v>
+        <v>11.2391539165165</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.047513294021741</v>
+        <v>50.52520022426722</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>14.96885530498817</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>5.184700487095386</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>14.63878178651671</v>
       </c>
       <c r="L19">
-        <v>6.414502099176407</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>14.62235164985707</v>
+        <v>15.11317685849284</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>15.4727121876206</v>
       </c>
       <c r="O19">
-        <v>75.66241710031203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.49374824208528</v>
+        <v>17.38286927706206</v>
       </c>
       <c r="C20">
-        <v>16.15777508712981</v>
+        <v>9.345202014824244</v>
       </c>
       <c r="D20">
-        <v>8.784824700805057</v>
+        <v>11.83358726545162</v>
       </c>
       <c r="E20">
-        <v>7.659743711443298</v>
+        <v>11.34394349888796</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.040138914784673</v>
+        <v>51.053778741351</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>15.03499362628427</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>5.182082718045137</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>14.94058578531557</v>
       </c>
       <c r="L20">
-        <v>6.450783873131548</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>14.96728222614741</v>
+        <v>15.30641467100898</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>15.41641614552997</v>
       </c>
       <c r="O20">
-        <v>77.14289904219261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.56631438045742</v>
+        <v>18.52645199966633</v>
       </c>
       <c r="C21">
-        <v>17.4627255997745</v>
+        <v>9.966702926822787</v>
       </c>
       <c r="D21">
-        <v>9.440079310788848</v>
+        <v>12.31070881594681</v>
       </c>
       <c r="E21">
-        <v>7.875951318814978</v>
+        <v>11.69988605373753</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.014909716180886</v>
+        <v>52.85563553325247</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>15.26970856457796</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>5.175678391375786</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>15.92410848495847</v>
       </c>
       <c r="L21">
-        <v>6.580014647641624</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>16.11550432490146</v>
+        <v>15.95286485344306</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>15.23373883385513</v>
       </c>
       <c r="O21">
-        <v>82.10268539133226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.9228179866798</v>
+        <v>19.248702640887</v>
       </c>
       <c r="C22">
-        <v>18.32313848312775</v>
+        <v>10.35939735352964</v>
       </c>
       <c r="D22">
-        <v>9.864820761739931</v>
+        <v>12.6221028323977</v>
       </c>
       <c r="E22">
-        <v>8.025217992183725</v>
+        <v>11.93530879455042</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.997944909117267</v>
+        <v>54.05256257217422</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>15.43280024933634</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>5.173341273037847</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>16.54471947570275</v>
       </c>
       <c r="L22">
-        <v>6.670562411004104</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>16.86178048607156</v>
+        <v>16.37298951795618</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>15.11942855679387</v>
       </c>
       <c r="O22">
-        <v>85.34784513734218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.19812066740949</v>
+        <v>18.86548832765486</v>
       </c>
       <c r="C23">
-        <v>17.86278652294936</v>
+        <v>10.15101777561061</v>
       </c>
       <c r="D23">
-        <v>9.638301241384125</v>
+        <v>12.45595552331232</v>
       </c>
       <c r="E23">
-        <v>7.944690631747739</v>
+        <v>11.80940780124061</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.007053018234215</v>
+        <v>53.41196547176451</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>15.34484352820263</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>5.174415057585787</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>16.21548015476485</v>
       </c>
       <c r="L23">
-        <v>6.62163285675449</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>16.46358174013566</v>
+        <v>16.14899225604129</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>15.17995543281564</v>
       </c>
       <c r="O23">
-        <v>83.61443728661864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.45980139599416</v>
+        <v>17.36374572013917</v>
       </c>
       <c r="C24">
-        <v>16.13648492459407</v>
+        <v>9.33481058050106</v>
       </c>
       <c r="D24">
-        <v>8.774025880865148</v>
+        <v>11.82578432373608</v>
       </c>
       <c r="E24">
-        <v>7.656317831182882</v>
+        <v>11.33817414816617</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.040545270914696</v>
+        <v>51.02465398910792</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>15.0313155375342</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>5.182217640624716</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>14.92412823684722</v>
       </c>
       <c r="L24">
-        <v>6.448765283094532</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>14.94838910944202</v>
+        <v>15.29581266695586</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>15.41948392333778</v>
       </c>
       <c r="O24">
-        <v>77.06168370756681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.47226906464351</v>
+        <v>15.74704915133601</v>
       </c>
       <c r="C25">
-        <v>14.27060280535503</v>
+        <v>8.394054891241137</v>
       </c>
       <c r="D25">
-        <v>7.81449823254238</v>
+        <v>11.14560963429175</v>
       </c>
       <c r="E25">
-        <v>7.368698068318332</v>
+        <v>10.84251421165055</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.07545763045489</v>
+        <v>48.5329429527505</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>14.73233411804974</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>5.198151920941538</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>13.45622905916346</v>
       </c>
       <c r="L25">
-        <v>6.284696249865461</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>13.27333046244971</v>
+        <v>14.36741935118601</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>15.69808129825971</v>
       </c>
       <c r="O25">
-        <v>69.92477577903905</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_62/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.55306714349764</v>
+        <v>14.84264716618951</v>
       </c>
       <c r="C2">
-        <v>7.646945822028384</v>
+        <v>7.012486002881392</v>
       </c>
       <c r="D2">
-        <v>10.64652807088438</v>
+        <v>14.58924615032959</v>
       </c>
       <c r="E2">
-        <v>10.48935803347533</v>
+        <v>15.53506472457622</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>46.77175134411527</v>
+        <v>56.93001939872304</v>
       </c>
       <c r="H2">
-        <v>14.54329677663058</v>
+        <v>21.24060571415182</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.215929365379044</v>
+        <v>9.108652014879013</v>
       </c>
       <c r="K2">
-        <v>12.5168389843342</v>
+        <v>14.39671618033581</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.67996330900787</v>
+        <v>19.20611913869215</v>
       </c>
       <c r="N2">
-        <v>15.91920237754537</v>
+        <v>23.52835691381003</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.70615451094632</v>
+        <v>14.67589437981519</v>
       </c>
       <c r="C3">
-        <v>7.105524643392023</v>
+        <v>6.904718026049555</v>
       </c>
       <c r="D3">
-        <v>10.31080540114064</v>
+        <v>14.56765974190672</v>
       </c>
       <c r="E3">
-        <v>10.25798464847989</v>
+        <v>15.53580892268196</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>45.62558781897825</v>
+        <v>56.81390448312573</v>
       </c>
       <c r="H3">
-        <v>14.43329305837744</v>
+        <v>21.26364709158396</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.231557959602415</v>
+        <v>9.125432257104261</v>
       </c>
       <c r="K3">
-        <v>11.85665150253501</v>
+        <v>14.2966180340384</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.21377927882655</v>
+        <v>19.17703502480393</v>
       </c>
       <c r="N3">
-        <v>16.078474226275</v>
+        <v>23.5776912050726</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.16852529237716</v>
+        <v>14.57663346378183</v>
       </c>
       <c r="C4">
-        <v>6.755433419077601</v>
+        <v>6.839799411768619</v>
       </c>
       <c r="D4">
-        <v>10.1064808224739</v>
+        <v>14.55732367638774</v>
       </c>
       <c r="E4">
-        <v>10.12007464930449</v>
+        <v>15.53901056522919</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>44.94586822051888</v>
+        <v>56.75494560857468</v>
       </c>
       <c r="H4">
-        <v>14.37425266722289</v>
+        <v>21.28105068793413</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.242862129576176</v>
+        <v>9.13656237759244</v>
       </c>
       <c r="K4">
-        <v>11.44070534635437</v>
+        <v>14.23840569250702</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.92826846316107</v>
+        <v>19.162982256956</v>
       </c>
       <c r="N4">
-        <v>16.18075999595587</v>
+        <v>23.60989521542459</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.94520632941394</v>
+        <v>14.53701717093531</v>
       </c>
       <c r="C5">
-        <v>6.608281671815404</v>
+        <v>6.81369535211315</v>
       </c>
       <c r="D5">
-        <v>10.0237672798724</v>
+        <v>14.5538482822083</v>
       </c>
       <c r="E5">
-        <v>10.06495541133183</v>
+        <v>15.54100606418148</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>44.67502204160666</v>
+        <v>56.73403197821754</v>
       </c>
       <c r="H5">
-        <v>14.35226731194146</v>
+        <v>21.28896089511353</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.247890067882359</v>
+        <v>9.141306291379282</v>
       </c>
       <c r="K5">
-        <v>11.26873755899901</v>
+        <v>14.21552253267614</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.81225034697512</v>
+        <v>19.15821676455022</v>
       </c>
       <c r="N5">
-        <v>16.2235518466549</v>
+        <v>23.62349991679551</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.907875705224</v>
+        <v>14.53049059432606</v>
       </c>
       <c r="C6">
-        <v>6.583574938864113</v>
+        <v>6.809383025242255</v>
       </c>
       <c r="D6">
-        <v>10.0100688894253</v>
+        <v>14.55331575964625</v>
       </c>
       <c r="E6">
-        <v>10.05586917005112</v>
+        <v>15.54137915091221</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>44.63042224226234</v>
+        <v>56.73074753194829</v>
       </c>
       <c r="H6">
-        <v>14.3487400420344</v>
+        <v>21.29032376754155</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.248750174674126</v>
+        <v>9.142106605628744</v>
       </c>
       <c r="K6">
-        <v>11.24003998253554</v>
+        <v>14.21177407989568</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.79301006227447</v>
+        <v>19.15748362032739</v>
       </c>
       <c r="N6">
-        <v>16.2307238800814</v>
+        <v>23.62578804812655</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.16553036315706</v>
+        <v>14.5760957493074</v>
       </c>
       <c r="C7">
-        <v>6.75346710558805</v>
+        <v>6.83944589558504</v>
       </c>
       <c r="D7">
-        <v>10.10536296033506</v>
+        <v>14.55727382001542</v>
       </c>
       <c r="E7">
-        <v>10.11932687174512</v>
+        <v>15.53903467957022</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>44.94219048235435</v>
+        <v>56.7546509455702</v>
       </c>
       <c r="H7">
-        <v>14.37394785227943</v>
+        <v>21.28115405635542</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.242928242322336</v>
+        <v>9.136625511818194</v>
       </c>
       <c r="K7">
-        <v>11.43839582670223</v>
+        <v>14.2380936577978</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.92670226420171</v>
+        <v>19.1629140911281</v>
       </c>
       <c r="N7">
-        <v>16.1813326337459</v>
+        <v>23.61007674392972</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.26481411542156</v>
+        <v>14.78453089472474</v>
       </c>
       <c r="C8">
-        <v>7.463899150822059</v>
+        <v>6.975089717734106</v>
       </c>
       <c r="D8">
-        <v>10.5304501969692</v>
+        <v>14.58119938532268</v>
       </c>
       <c r="E8">
-        <v>10.40873969727703</v>
+        <v>15.5347521149786</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>46.37162953929909</v>
+        <v>56.88742976767858</v>
       </c>
       <c r="H8">
-        <v>14.50356464268858</v>
+        <v>21.24787421529147</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.220958552546421</v>
+        <v>9.114266410720164</v>
       </c>
       <c r="K8">
-        <v>12.29150965404482</v>
+        <v>14.36154180580531</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.51915614986697</v>
+        <v>19.19530401087388</v>
       </c>
       <c r="N8">
-        <v>15.97317406965539</v>
+        <v>23.54497065287661</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.27429185699356</v>
+        <v>15.21592092888974</v>
       </c>
       <c r="C9">
-        <v>8.71924509372519</v>
+        <v>7.249409463736218</v>
       </c>
       <c r="D9">
-        <v>11.37462432545425</v>
+        <v>14.65112306519546</v>
       </c>
       <c r="E9">
-        <v>11.00771816962614</v>
+        <v>15.54809486381247</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>49.36104349486112</v>
+        <v>57.24510854807217</v>
       </c>
       <c r="H9">
-        <v>14.82804267754991</v>
+        <v>21.20847429182828</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.191818665931875</v>
+        <v>9.076966649255834</v>
       </c>
       <c r="K9">
-        <v>13.948478303377</v>
+        <v>14.62836209544508</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.68099698694612</v>
+        <v>19.28879253881139</v>
       </c>
       <c r="N9">
-        <v>15.60166720055942</v>
+        <v>23.43245581229192</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.77993683498092</v>
+        <v>15.54370776460465</v>
       </c>
       <c r="C10">
-        <v>9.560970284367434</v>
+        <v>7.453874385711136</v>
       </c>
       <c r="D10">
-        <v>11.99693764548642</v>
+        <v>14.71629059944079</v>
       </c>
       <c r="E10">
-        <v>11.46511644647141</v>
+        <v>15.57108747793728</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>51.66609025775731</v>
+        <v>57.56626240343443</v>
       </c>
       <c r="H10">
-        <v>15.11320314639215</v>
+        <v>21.19532288988929</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.17948707269698</v>
+        <v>9.053532511936215</v>
       </c>
       <c r="K10">
-        <v>15.28221479352697</v>
+        <v>14.83800342233925</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.52813399200858</v>
+        <v>19.37541522021789</v>
       </c>
       <c r="N10">
-        <v>15.35280233189426</v>
+        <v>23.35900771952594</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.45382674264101</v>
+        <v>15.69453992330536</v>
       </c>
       <c r="C11">
-        <v>9.927225164170803</v>
+        <v>7.547077359161925</v>
       </c>
       <c r="D11">
-        <v>12.27981381583994</v>
+        <v>14.74887210630864</v>
       </c>
       <c r="E11">
-        <v>11.67665718942001</v>
+        <v>15.58439179060009</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>52.73775421664408</v>
+        <v>57.72477762026538</v>
       </c>
       <c r="H11">
-        <v>15.25394244189539</v>
+        <v>21.19277293551779</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.175987067948348</v>
+        <v>9.043729367217253</v>
       </c>
       <c r="K11">
-        <v>15.86168202170462</v>
+        <v>14.9359944373931</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.91110885501758</v>
+        <v>19.41863108201653</v>
       </c>
       <c r="N11">
-        <v>15.24528566380788</v>
+        <v>23.32759074933146</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.70469042648455</v>
+        <v>15.7518498579188</v>
       </c>
       <c r="C12">
-        <v>10.0635965675556</v>
+        <v>7.582362120299227</v>
       </c>
       <c r="D12">
-        <v>12.38686022064924</v>
+        <v>14.76162613358571</v>
       </c>
       <c r="E12">
-        <v>11.75724289060999</v>
+        <v>15.58983664625088</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>53.14687822217037</v>
+        <v>57.78656275178587</v>
       </c>
       <c r="H12">
-        <v>15.30889390877489</v>
+        <v>21.19230082618831</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.174977687603295</v>
+        <v>9.040140085958548</v>
       </c>
       <c r="K12">
-        <v>16.07729939619265</v>
+        <v>14.97344909207889</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.05572915570374</v>
+        <v>19.43553537636688</v>
       </c>
       <c r="N12">
-        <v>15.20543818801927</v>
+        <v>23.31598054161286</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.65085301146802</v>
+        <v>15.73949940997371</v>
       </c>
       <c r="C13">
-        <v>10.03432856269059</v>
+        <v>7.574763894485876</v>
       </c>
       <c r="D13">
-        <v>12.36380960159976</v>
+        <v>14.7588609219976</v>
       </c>
       <c r="E13">
-        <v>11.73986619622976</v>
+        <v>15.58864594625755</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>53.05861863765919</v>
+        <v>57.7731784538753</v>
       </c>
       <c r="H13">
-        <v>15.29698426512354</v>
+        <v>21.19238055851205</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.175180809755862</v>
+        <v>9.040907638153339</v>
       </c>
       <c r="K13">
-        <v>16.03103021951635</v>
+        <v>14.96536758277651</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.02460129118157</v>
+        <v>19.43187088877915</v>
       </c>
       <c r="N13">
-        <v>15.21398066104054</v>
+        <v>23.31846825796898</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.47455148398193</v>
+        <v>15.69925128581635</v>
       </c>
       <c r="C14">
-        <v>9.938490605911305</v>
+        <v>7.549980647278886</v>
       </c>
       <c r="D14">
-        <v>12.28862223096497</v>
+        <v>14.7499130852209</v>
       </c>
       <c r="E14">
-        <v>11.68327748814985</v>
+        <v>15.58483160344021</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>52.77134670757589</v>
+        <v>57.72982563535061</v>
       </c>
       <c r="H14">
-        <v>15.25842970676748</v>
+        <v>21.19272420559034</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.175897616647926</v>
+        <v>9.043431612374397</v>
       </c>
       <c r="K14">
-        <v>15.87949680667349</v>
+        <v>14.93906906069004</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.92301522156825</v>
+        <v>19.42001105001323</v>
       </c>
       <c r="N14">
-        <v>15.24198971529166</v>
+        <v>23.3266298251246</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.36600181789686</v>
+        <v>15.67462168841471</v>
       </c>
       <c r="C15">
-        <v>9.879487046759861</v>
+        <v>7.534797930135884</v>
       </c>
       <c r="D15">
-        <v>12.24255734522476</v>
+        <v>14.74448627645262</v>
       </c>
       <c r="E15">
-        <v>11.64867732631791</v>
+        <v>15.58254811273748</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>52.59581555921785</v>
+        <v>57.70349898465349</v>
       </c>
       <c r="H15">
-        <v>15.23503185810311</v>
+        <v>21.19299896140356</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.176378225560328</v>
+        <v>9.044993623137227</v>
       </c>
       <c r="K15">
-        <v>15.78618473652458</v>
+        <v>14.92300482950249</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.86073677842446</v>
+        <v>19.41281653367001</v>
       </c>
       <c r="N15">
-        <v>15.259260499044</v>
+        <v>23.33166635549427</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.73528573425828</v>
+        <v>15.53388049154863</v>
       </c>
       <c r="C16">
-        <v>9.536705718072385</v>
+        <v>7.44778403536746</v>
       </c>
       <c r="D16">
-        <v>11.97844278935494</v>
+        <v>14.71421989743662</v>
       </c>
       <c r="E16">
-        <v>11.45135976211157</v>
+        <v>15.57027506728362</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>51.59651710128576</v>
+        <v>57.5561507310199</v>
       </c>
       <c r="H16">
-        <v>15.10423331031543</v>
+        <v>21.19555860449057</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.179759315053064</v>
+        <v>9.054190392950131</v>
       </c>
       <c r="K16">
-        <v>15.2438055932246</v>
+        <v>14.83164975223761</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.50305195992765</v>
+        <v>19.37266692469031</v>
       </c>
       <c r="N16">
-        <v>15.35994730659902</v>
+        <v>23.36110102216288</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.34054915802339</v>
+        <v>15.44794215198037</v>
       </c>
       <c r="C17">
-        <v>9.322205974729611</v>
+        <v>7.394426293062881</v>
       </c>
       <c r="D17">
-        <v>11.81632752547911</v>
+        <v>14.69640035044955</v>
       </c>
       <c r="E17">
-        <v>11.33118431365115</v>
+        <v>15.56347305953756</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>50.98937157603221</v>
+        <v>57.46892006828088</v>
       </c>
       <c r="H17">
-        <v>15.02686502540474</v>
+        <v>21.19800803557905</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.182382518419073</v>
+        <v>9.060051637874764</v>
       </c>
       <c r="K17">
-        <v>14.90416498575824</v>
+        <v>14.77625748749874</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.28296217896722</v>
+        <v>19.34900656510361</v>
       </c>
       <c r="N17">
-        <v>15.42320553820043</v>
+        <v>23.37966907330682</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.11060434909227</v>
+        <v>15.39867784376897</v>
       </c>
       <c r="C18">
-        <v>9.197259500261055</v>
+        <v>7.363756420555171</v>
       </c>
       <c r="D18">
-        <v>11.72306428534878</v>
+        <v>14.68642781407488</v>
       </c>
       <c r="E18">
-        <v>11.2623897071575</v>
+        <v>15.55982865247487</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>50.64232892775667</v>
+        <v>57.41991819542688</v>
       </c>
       <c r="H18">
-        <v>14.98339746435006</v>
+        <v>21.19974000260863</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.184089077949084</v>
+        <v>9.063503569032651</v>
       </c>
       <c r="K18">
-        <v>14.70624048091688</v>
+        <v>14.74464614071013</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.15614954651485</v>
+        <v>19.33575699751832</v>
       </c>
       <c r="N18">
-        <v>15.46012258598906</v>
+        <v>23.39053670574276</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.03224757231204</v>
+        <v>15.38202782276191</v>
       </c>
       <c r="C19">
-        <v>9.154682672286459</v>
+        <v>7.353376713844101</v>
       </c>
       <c r="D19">
-        <v>11.69148521175111</v>
+        <v>14.68309900312296</v>
       </c>
       <c r="E19">
-        <v>11.2391539165165</v>
+        <v>15.55864080031428</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>50.52520022426722</v>
+        <v>57.40352889213637</v>
       </c>
       <c r="H19">
-        <v>14.96885530498817</v>
+        <v>21.20038191327659</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.184700487095386</v>
+        <v>9.064686202810497</v>
       </c>
       <c r="K19">
-        <v>14.63878178651671</v>
+        <v>14.73398671389604</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.11317685849284</v>
+        <v>19.33133287336876</v>
       </c>
       <c r="N19">
-        <v>15.4727121876206</v>
+        <v>23.39424855584209</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.38286927706206</v>
+        <v>15.45707373729883</v>
       </c>
       <c r="C20">
-        <v>9.345202014824244</v>
+        <v>7.400104505630589</v>
       </c>
       <c r="D20">
-        <v>11.83358726545162</v>
+        <v>14.69826866717015</v>
       </c>
       <c r="E20">
-        <v>11.34394349888796</v>
+        <v>15.56416943092124</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>51.053778741351</v>
+        <v>57.47808492647329</v>
       </c>
       <c r="H20">
-        <v>15.03499362628427</v>
+        <v>21.1977138480099</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.182082718045137</v>
+        <v>9.059419348583594</v>
       </c>
       <c r="K20">
-        <v>14.94058578531557</v>
+        <v>14.78212855058081</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.30641467100898</v>
+        <v>19.35148813036732</v>
       </c>
       <c r="N20">
-        <v>15.41641614552997</v>
+        <v>23.37767303910486</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.52645199966633</v>
+        <v>15.71106832571573</v>
       </c>
       <c r="C21">
-        <v>9.966702926822787</v>
+        <v>7.5572606229282</v>
       </c>
       <c r="D21">
-        <v>12.31070881594681</v>
+        <v>14.75253003999645</v>
       </c>
       <c r="E21">
-        <v>11.69988605373753</v>
+        <v>15.58594094766768</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>52.85563553325247</v>
+        <v>57.74251190409372</v>
       </c>
       <c r="H21">
-        <v>15.26970856457796</v>
+        <v>21.19260987642372</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.175678391375786</v>
+        <v>9.04268692534966</v>
       </c>
       <c r="K21">
-        <v>15.92410848495847</v>
+        <v>14.94678438067638</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.95286485344306</v>
+        <v>19.42348000519937</v>
       </c>
       <c r="N21">
-        <v>15.23373883385513</v>
+        <v>23.32422479470873</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.248702640887</v>
+        <v>15.87816909717788</v>
       </c>
       <c r="C22">
-        <v>10.35939735352964</v>
+        <v>7.659901601658256</v>
       </c>
       <c r="D22">
-        <v>12.6221028323977</v>
+        <v>14.79041522446767</v>
       </c>
       <c r="E22">
-        <v>11.93530879455042</v>
+        <v>15.6025397631524</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>54.05256257217422</v>
+        <v>57.92556773771725</v>
       </c>
       <c r="H22">
-        <v>15.43280024933634</v>
+        <v>21.19215046183495</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.173341273037847</v>
+        <v>9.032467867024733</v>
       </c>
       <c r="K22">
-        <v>16.54471947570275</v>
+        <v>15.05640831616762</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.37298951795618</v>
+        <v>19.47367035616194</v>
       </c>
       <c r="N22">
-        <v>15.11942855679387</v>
+        <v>23.29096442667812</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.86548832765486</v>
+        <v>15.78890134656823</v>
       </c>
       <c r="C23">
-        <v>10.15101777561061</v>
+        <v>7.60513833418115</v>
       </c>
       <c r="D23">
-        <v>12.45595552331232</v>
+        <v>14.76997571601148</v>
       </c>
       <c r="E23">
-        <v>11.80940780124061</v>
+        <v>15.59346465446393</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>53.41196547176451</v>
+        <v>57.82694032846996</v>
       </c>
       <c r="H23">
-        <v>15.34484352820263</v>
+        <v>21.19213256280182</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.174415057585787</v>
+        <v>9.037856506108231</v>
       </c>
       <c r="K23">
-        <v>16.21548015476485</v>
+        <v>14.99772584097545</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.14899225604129</v>
+        <v>19.44659856794493</v>
       </c>
       <c r="N23">
-        <v>15.17995543281564</v>
+        <v>23.30856324616789</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.36374572013917</v>
+        <v>15.45294489863266</v>
       </c>
       <c r="C24">
-        <v>9.33481058050106</v>
+        <v>7.397537363593759</v>
       </c>
       <c r="D24">
-        <v>11.82578432373608</v>
+        <v>14.69742315298499</v>
       </c>
       <c r="E24">
-        <v>11.33817414816617</v>
+        <v>15.56385377219694</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>51.02465398910792</v>
+        <v>57.47393791530481</v>
       </c>
       <c r="H24">
-        <v>15.0313155375342</v>
+        <v>21.19784584163356</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.182217640624716</v>
+        <v>9.059704950424184</v>
       </c>
       <c r="K24">
-        <v>14.92412823684722</v>
+        <v>14.77947351052702</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.29581266695586</v>
+        <v>19.35036511420713</v>
       </c>
       <c r="N24">
-        <v>15.41948392333778</v>
+        <v>23.37857484610046</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.74704915133601</v>
+        <v>15.09709678104617</v>
       </c>
       <c r="C25">
-        <v>8.394054891241137</v>
+        <v>7.174531037634464</v>
       </c>
       <c r="D25">
-        <v>11.14560963429175</v>
+        <v>14.62976552137717</v>
       </c>
       <c r="E25">
-        <v>10.84251421165055</v>
+        <v>15.54216321542701</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>48.5329429527505</v>
+        <v>57.138017124954</v>
       </c>
       <c r="H25">
-        <v>14.73233411804974</v>
+        <v>21.21636058129284</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.198151920941538</v>
+        <v>9.086358548756357</v>
       </c>
       <c r="K25">
-        <v>13.45622905916346</v>
+        <v>14.55367932519197</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.36741935118601</v>
+        <v>19.26032447319684</v>
       </c>
       <c r="N25">
-        <v>15.69808129825971</v>
+        <v>23.46127385741722</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_62/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.84264716618951</v>
+        <v>14.55306714349761</v>
       </c>
       <c r="C2">
-        <v>7.012486002881392</v>
+        <v>7.646945822028389</v>
       </c>
       <c r="D2">
-        <v>14.58924615032959</v>
+        <v>10.64652807088447</v>
       </c>
       <c r="E2">
-        <v>15.53506472457622</v>
+        <v>10.48935803347531</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>56.93001939872304</v>
+        <v>46.77175134411471</v>
       </c>
       <c r="H2">
-        <v>21.24060571415182</v>
+        <v>14.54329677663039</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.108652014879013</v>
+        <v>5.21592936537896</v>
       </c>
       <c r="K2">
-        <v>14.39671618033581</v>
+        <v>12.51683898433415</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.20611913869215</v>
+        <v>13.67996330900782</v>
       </c>
       <c r="N2">
-        <v>23.52835691381003</v>
+        <v>15.91920237754517</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.67589437981519</v>
+        <v>13.70615451094631</v>
       </c>
       <c r="C3">
-        <v>6.904718026049555</v>
+        <v>7.10552464339199</v>
       </c>
       <c r="D3">
-        <v>14.56765974190672</v>
+        <v>10.31080540114064</v>
       </c>
       <c r="E3">
-        <v>15.53580892268196</v>
+        <v>10.25798464847988</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>56.81390448312573</v>
+        <v>45.6255878189782</v>
       </c>
       <c r="H3">
-        <v>21.26364709158396</v>
+        <v>14.43329305837739</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.125432257104261</v>
+        <v>5.231557959602445</v>
       </c>
       <c r="K3">
-        <v>14.2966180340384</v>
+        <v>11.85665150253502</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.17703502480393</v>
+        <v>13.21377927882654</v>
       </c>
       <c r="N3">
-        <v>23.5776912050726</v>
+        <v>16.07847422627497</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.57663346378183</v>
+        <v>13.16852529237715</v>
       </c>
       <c r="C4">
-        <v>6.839799411768619</v>
+        <v>6.75543341907759</v>
       </c>
       <c r="D4">
-        <v>14.55732367638774</v>
+        <v>10.10648082247398</v>
       </c>
       <c r="E4">
-        <v>15.53901056522919</v>
+        <v>10.12007464930445</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>56.75494560857468</v>
+        <v>44.94586822051881</v>
       </c>
       <c r="H4">
-        <v>21.28105068793413</v>
+        <v>14.37425266722284</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.13656237759244</v>
+        <v>5.242862129576119</v>
       </c>
       <c r="K4">
-        <v>14.23840569250702</v>
+        <v>11.44070534635437</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>19.162982256956</v>
+        <v>12.92826846316106</v>
       </c>
       <c r="N4">
-        <v>23.60989521542459</v>
+        <v>16.1807599959558</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.53701717093531</v>
+        <v>12.94520632941387</v>
       </c>
       <c r="C5">
-        <v>6.81369535211315</v>
+        <v>6.608281671815354</v>
       </c>
       <c r="D5">
-        <v>14.5538482822083</v>
+        <v>10.02376727987214</v>
       </c>
       <c r="E5">
-        <v>15.54100606418148</v>
+        <v>10.0649554113317</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>56.73403197821754</v>
+        <v>44.67502204160647</v>
       </c>
       <c r="H5">
-        <v>21.28896089511353</v>
+        <v>14.35226731194134</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.141306291379282</v>
+        <v>5.247890067882388</v>
       </c>
       <c r="K5">
-        <v>14.21552253267614</v>
+        <v>11.26873755899899</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>19.15821676455022</v>
+        <v>12.81225034697503</v>
       </c>
       <c r="N5">
-        <v>23.62349991679551</v>
+        <v>16.2235518466548</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.53049059432606</v>
+        <v>12.90787570522399</v>
       </c>
       <c r="C6">
-        <v>6.809383025242255</v>
+        <v>6.583574938864197</v>
       </c>
       <c r="D6">
-        <v>14.55331575964625</v>
+        <v>10.0100688894253</v>
       </c>
       <c r="E6">
-        <v>15.54137915091221</v>
+        <v>10.05586917005112</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>56.73074753194829</v>
+        <v>44.63042224226184</v>
       </c>
       <c r="H6">
-        <v>21.29032376754155</v>
+        <v>14.34874004203426</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.142106605628744</v>
+        <v>5.248750174674128</v>
       </c>
       <c r="K6">
-        <v>14.21177407989568</v>
+        <v>11.24003998253547</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>19.15748362032739</v>
+        <v>12.79301006227439</v>
       </c>
       <c r="N6">
-        <v>23.62578804812655</v>
+        <v>16.23072388008123</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.5760957493074</v>
+        <v>13.16553036315704</v>
       </c>
       <c r="C7">
-        <v>6.83944589558504</v>
+        <v>6.753467105587914</v>
       </c>
       <c r="D7">
-        <v>14.55727382001542</v>
+        <v>10.10536296033512</v>
       </c>
       <c r="E7">
-        <v>15.53903467957022</v>
+        <v>10.11932687174502</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>56.7546509455702</v>
+        <v>44.94219048235445</v>
       </c>
       <c r="H7">
-        <v>21.28115405635542</v>
+        <v>14.37394785227944</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.136625511818194</v>
+        <v>5.242928242322151</v>
       </c>
       <c r="K7">
-        <v>14.2380936577978</v>
+        <v>11.43839582670227</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>19.1629140911281</v>
+        <v>12.92670226420171</v>
       </c>
       <c r="N7">
-        <v>23.61007674392972</v>
+        <v>16.18133263374584</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.78453089472474</v>
+        <v>14.26481411542156</v>
       </c>
       <c r="C8">
-        <v>6.975089717734106</v>
+        <v>7.46389915082205</v>
       </c>
       <c r="D8">
-        <v>14.58119938532268</v>
+        <v>10.53045019696927</v>
       </c>
       <c r="E8">
-        <v>15.5347521149786</v>
+        <v>10.40873969727707</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>56.88742976767858</v>
+        <v>46.37162953929904</v>
       </c>
       <c r="H8">
-        <v>21.24787421529147</v>
+        <v>14.50356464268863</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.114266410720164</v>
+        <v>5.220958552546449</v>
       </c>
       <c r="K8">
-        <v>14.36154180580531</v>
+        <v>12.29150965404482</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.19530401087388</v>
+        <v>13.51915614986699</v>
       </c>
       <c r="N8">
-        <v>23.54497065287661</v>
+        <v>15.97317406965542</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.21592092888974</v>
+        <v>16.27429185699356</v>
       </c>
       <c r="C9">
-        <v>7.249409463736218</v>
+        <v>8.719245093725075</v>
       </c>
       <c r="D9">
-        <v>14.65112306519546</v>
+        <v>11.37462432545413</v>
       </c>
       <c r="E9">
-        <v>15.54809486381247</v>
+        <v>11.00771816962605</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>57.24510854807217</v>
+        <v>49.36104349486126</v>
       </c>
       <c r="H9">
-        <v>21.20847429182828</v>
+        <v>14.82804267754998</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.076966649255834</v>
+        <v>5.191818665931817</v>
       </c>
       <c r="K9">
-        <v>14.62836209544508</v>
+        <v>13.94847830337695</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.28879253881139</v>
+        <v>14.68099698694612</v>
       </c>
       <c r="N9">
-        <v>23.43245581229192</v>
+        <v>15.60166720055943</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.54370776460465</v>
+        <v>17.77993683498092</v>
       </c>
       <c r="C10">
-        <v>7.453874385711136</v>
+        <v>9.560970284367389</v>
       </c>
       <c r="D10">
-        <v>14.71629059944079</v>
+        <v>11.99693764548646</v>
       </c>
       <c r="E10">
-        <v>15.57108747793728</v>
+        <v>11.46511644647149</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>57.56626240343443</v>
+        <v>51.66609025775731</v>
       </c>
       <c r="H10">
-        <v>21.19532288988929</v>
+        <v>15.1132031463922</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.053532511936215</v>
+        <v>5.179487072696979</v>
       </c>
       <c r="K10">
-        <v>14.83800342233925</v>
+        <v>15.28221479352695</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.37541522021789</v>
+        <v>15.52813399200861</v>
       </c>
       <c r="N10">
-        <v>23.35900771952594</v>
+        <v>15.35280233189426</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.69453992330536</v>
+        <v>18.45382674264097</v>
       </c>
       <c r="C11">
-        <v>7.547077359161925</v>
+        <v>9.927225164170872</v>
       </c>
       <c r="D11">
-        <v>14.74887210630864</v>
+        <v>12.27981381584002</v>
       </c>
       <c r="E11">
-        <v>15.58439179060009</v>
+        <v>11.67665718941998</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>57.72477762026538</v>
+        <v>52.73775421664428</v>
       </c>
       <c r="H11">
-        <v>21.19277293551779</v>
+        <v>15.25394244189551</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.043729367217253</v>
+        <v>5.175987067948259</v>
       </c>
       <c r="K11">
-        <v>14.9359944373931</v>
+        <v>15.86168202170462</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.41863108201653</v>
+        <v>15.91110885501757</v>
       </c>
       <c r="N11">
-        <v>23.32759074933146</v>
+        <v>15.24528566380804</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.7518498579188</v>
+        <v>18.70469042648456</v>
       </c>
       <c r="C12">
-        <v>7.582362120299227</v>
+        <v>10.06359656755567</v>
       </c>
       <c r="D12">
-        <v>14.76162613358571</v>
+        <v>12.38686022064921</v>
       </c>
       <c r="E12">
-        <v>15.58983664625088</v>
+        <v>11.75724289060992</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>57.78656275178587</v>
+        <v>53.14687822217032</v>
       </c>
       <c r="H12">
-        <v>21.19230082618831</v>
+        <v>15.30889390877484</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.040140085958548</v>
+        <v>5.174977687603226</v>
       </c>
       <c r="K12">
-        <v>14.97344909207889</v>
+        <v>16.07729939619266</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.43553537636688</v>
+        <v>16.05572915570371</v>
       </c>
       <c r="N12">
-        <v>23.31598054161286</v>
+        <v>15.20543818801925</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.73949940997371</v>
+        <v>18.650853011468</v>
       </c>
       <c r="C13">
-        <v>7.574763894485876</v>
+        <v>10.0343285626906</v>
       </c>
       <c r="D13">
-        <v>14.7588609219976</v>
+        <v>12.36380960159968</v>
       </c>
       <c r="E13">
-        <v>15.58864594625755</v>
+        <v>11.73986619622972</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>57.7731784538753</v>
+        <v>53.05861863765922</v>
       </c>
       <c r="H13">
-        <v>21.19238055851205</v>
+        <v>15.29698426512354</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.040907638153339</v>
+        <v>5.175180809755899</v>
       </c>
       <c r="K13">
-        <v>14.96536758277651</v>
+        <v>16.03103021951634</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.43187088877915</v>
+        <v>16.02460129118155</v>
       </c>
       <c r="N13">
-        <v>23.31846825796898</v>
+        <v>15.21398066104054</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.69925128581635</v>
+        <v>18.47455148398196</v>
       </c>
       <c r="C14">
-        <v>7.549980647278886</v>
+        <v>9.938490605911314</v>
       </c>
       <c r="D14">
-        <v>14.7499130852209</v>
+        <v>12.28862223096495</v>
       </c>
       <c r="E14">
-        <v>15.58483160344021</v>
+        <v>11.68327748814979</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>57.72982563535061</v>
+        <v>52.77134670757577</v>
       </c>
       <c r="H14">
-        <v>21.19272420559034</v>
+        <v>15.25842970676739</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.043431612374397</v>
+        <v>5.175897616647916</v>
       </c>
       <c r="K14">
-        <v>14.93906906069004</v>
+        <v>15.87949680667353</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.42001105001323</v>
+        <v>15.92301522156824</v>
       </c>
       <c r="N14">
-        <v>23.3266298251246</v>
+        <v>15.24198971529155</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.67462168841471</v>
+        <v>18.36600181789691</v>
       </c>
       <c r="C15">
-        <v>7.534797930135884</v>
+        <v>9.879487046760033</v>
       </c>
       <c r="D15">
-        <v>14.74448627645262</v>
+        <v>12.24255734522477</v>
       </c>
       <c r="E15">
-        <v>15.58254811273748</v>
+        <v>11.64867732631789</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>57.70349898465349</v>
+        <v>52.59581555921771</v>
       </c>
       <c r="H15">
-        <v>21.19299896140356</v>
+        <v>15.23503185810302</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.044993623137227</v>
+        <v>5.176378225560276</v>
       </c>
       <c r="K15">
-        <v>14.92300482950249</v>
+        <v>15.78618473652464</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.41281653367001</v>
+        <v>15.86073677842443</v>
       </c>
       <c r="N15">
-        <v>23.33166635549427</v>
+        <v>15.25926049904398</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.53388049154863</v>
+        <v>17.73528573425823</v>
       </c>
       <c r="C16">
-        <v>7.44778403536746</v>
+        <v>9.536705718072316</v>
       </c>
       <c r="D16">
-        <v>14.71421989743662</v>
+        <v>11.97844278935501</v>
       </c>
       <c r="E16">
-        <v>15.57027506728362</v>
+        <v>11.45135976211157</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>57.5561507310199</v>
+        <v>51.59651710128585</v>
       </c>
       <c r="H16">
-        <v>21.19555860449057</v>
+        <v>15.10423331031545</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.054190392950131</v>
+        <v>5.179759315053029</v>
       </c>
       <c r="K16">
-        <v>14.83164975223761</v>
+        <v>15.24380559322456</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.37266692469031</v>
+        <v>15.50305195992765</v>
       </c>
       <c r="N16">
-        <v>23.36110102216288</v>
+        <v>15.35994730659907</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.44794215198037</v>
+        <v>17.34054915802333</v>
       </c>
       <c r="C17">
-        <v>7.394426293062881</v>
+        <v>9.322205974729746</v>
       </c>
       <c r="D17">
-        <v>14.69640035044955</v>
+        <v>11.81632752547913</v>
       </c>
       <c r="E17">
-        <v>15.56347305953756</v>
+        <v>11.33118431365118</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>57.46892006828088</v>
+        <v>50.98937157603223</v>
       </c>
       <c r="H17">
-        <v>21.19800803557905</v>
+        <v>15.02686502540474</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.060051637874764</v>
+        <v>5.182382518419125</v>
       </c>
       <c r="K17">
-        <v>14.77625748749874</v>
+        <v>14.90416498575822</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>19.34900656510361</v>
+        <v>15.28296217896723</v>
       </c>
       <c r="N17">
-        <v>23.37966907330682</v>
+        <v>15.42320553820048</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.39867784376897</v>
+        <v>17.11060434909223</v>
       </c>
       <c r="C18">
-        <v>7.363756420555171</v>
+        <v>9.197259500261145</v>
       </c>
       <c r="D18">
-        <v>14.68642781407488</v>
+        <v>11.72306428534871</v>
       </c>
       <c r="E18">
-        <v>15.55982865247487</v>
+        <v>11.26238970715752</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>57.41991819542688</v>
+        <v>50.64232892775653</v>
       </c>
       <c r="H18">
-        <v>21.19974000260863</v>
+        <v>14.98339746434995</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.063503569032651</v>
+        <v>5.184089077949083</v>
       </c>
       <c r="K18">
-        <v>14.74464614071013</v>
+        <v>14.70624048091688</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.33575699751832</v>
+        <v>15.15614954651484</v>
       </c>
       <c r="N18">
-        <v>23.39053670574276</v>
+        <v>15.46012258598901</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.38202782276191</v>
+        <v>17.03224757231201</v>
       </c>
       <c r="C19">
-        <v>7.353376713844101</v>
+        <v>9.154682672286414</v>
       </c>
       <c r="D19">
-        <v>14.68309900312296</v>
+        <v>11.69148521175104</v>
       </c>
       <c r="E19">
-        <v>15.55864080031428</v>
+        <v>11.23915391651647</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>57.40352889213637</v>
+        <v>50.52520022426746</v>
       </c>
       <c r="H19">
-        <v>21.20038191327659</v>
+        <v>14.96885530498818</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.064686202810497</v>
+        <v>5.184700487095405</v>
       </c>
       <c r="K19">
-        <v>14.73398671389604</v>
+        <v>14.63878178651667</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.33133287336876</v>
+        <v>15.11317685849286</v>
       </c>
       <c r="N19">
-        <v>23.39424855584209</v>
+        <v>15.47271218762067</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.45707373729883</v>
+        <v>17.38286927706206</v>
       </c>
       <c r="C20">
-        <v>7.400104505630589</v>
+        <v>9.345202014824302</v>
       </c>
       <c r="D20">
-        <v>14.69826866717015</v>
+        <v>11.83358726545152</v>
       </c>
       <c r="E20">
-        <v>15.56416943092124</v>
+        <v>11.3439434988879</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>57.47808492647329</v>
+        <v>51.05377874135071</v>
       </c>
       <c r="H20">
-        <v>21.1977138480099</v>
+        <v>15.03499362628419</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.059419348583594</v>
+        <v>5.182082718045137</v>
       </c>
       <c r="K20">
-        <v>14.78212855058081</v>
+        <v>14.94058578531557</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>19.35148813036732</v>
+        <v>15.30641467100895</v>
       </c>
       <c r="N20">
-        <v>23.37767303910486</v>
+        <v>15.41641614552986</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.71106832571573</v>
+        <v>18.52645199966636</v>
       </c>
       <c r="C21">
-        <v>7.5572606229282</v>
+        <v>9.96670292682281</v>
       </c>
       <c r="D21">
-        <v>14.75253003999645</v>
+        <v>12.31070881594677</v>
       </c>
       <c r="E21">
-        <v>15.58594094766768</v>
+        <v>11.69988605373752</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>57.74251190409372</v>
+        <v>52.85563553325245</v>
       </c>
       <c r="H21">
-        <v>21.19260987642372</v>
+        <v>15.26970856457802</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.04268692534966</v>
+        <v>5.17567839137579</v>
       </c>
       <c r="K21">
-        <v>14.94678438067638</v>
+        <v>15.92410848495851</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>19.42348000519937</v>
+        <v>15.95286485344305</v>
       </c>
       <c r="N21">
-        <v>23.32422479470873</v>
+        <v>15.2337388338552</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.87816909717788</v>
+        <v>19.24870264088707</v>
       </c>
       <c r="C22">
-        <v>7.659901601658256</v>
+        <v>10.35939735352973</v>
       </c>
       <c r="D22">
-        <v>14.79041522446767</v>
+        <v>12.62210283239772</v>
       </c>
       <c r="E22">
-        <v>15.6025397631524</v>
+        <v>11.93530879455036</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>57.92556773771725</v>
+        <v>54.05256257217422</v>
       </c>
       <c r="H22">
-        <v>21.19215046183495</v>
+        <v>15.43280024933633</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.032467867024733</v>
+        <v>5.17334127303783</v>
       </c>
       <c r="K22">
-        <v>15.05640831616762</v>
+        <v>16.54471947570278</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.47367035616194</v>
+        <v>16.37298951795615</v>
       </c>
       <c r="N22">
-        <v>23.29096442667812</v>
+        <v>15.11942855679383</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.78890134656823</v>
+        <v>18.86548832765482</v>
       </c>
       <c r="C23">
-        <v>7.60513833418115</v>
+        <v>10.15101777561052</v>
       </c>
       <c r="D23">
-        <v>14.76997571601148</v>
+        <v>12.45595552331235</v>
       </c>
       <c r="E23">
-        <v>15.59346465446393</v>
+        <v>11.80940780124065</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>57.82694032846996</v>
+        <v>53.41196547176463</v>
       </c>
       <c r="H23">
-        <v>21.19213256280182</v>
+        <v>15.34484352820265</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.037856506108231</v>
+        <v>5.174415057585832</v>
       </c>
       <c r="K23">
-        <v>14.99772584097545</v>
+        <v>16.2154801547648</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.44659856794493</v>
+        <v>16.14899225604132</v>
       </c>
       <c r="N23">
-        <v>23.30856324616789</v>
+        <v>15.17995543281574</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.45294489863266</v>
+        <v>17.36374572013913</v>
       </c>
       <c r="C24">
-        <v>7.397537363593759</v>
+        <v>9.334810580501085</v>
       </c>
       <c r="D24">
-        <v>14.69742315298499</v>
+        <v>11.82578432373609</v>
       </c>
       <c r="E24">
-        <v>15.56385377219694</v>
+        <v>11.33817414816618</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>57.47393791530481</v>
+        <v>51.02465398910812</v>
       </c>
       <c r="H24">
-        <v>21.19784584163356</v>
+        <v>15.03131553753428</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.059704950424184</v>
+        <v>5.182217640624747</v>
       </c>
       <c r="K24">
-        <v>14.77947351052702</v>
+        <v>14.92412823684716</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.35036511420713</v>
+        <v>15.29581266695587</v>
       </c>
       <c r="N24">
-        <v>23.37857484610046</v>
+        <v>15.41948392333786</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.09709678104617</v>
+        <v>15.74704915133601</v>
       </c>
       <c r="C25">
-        <v>7.174531037634464</v>
+        <v>8.394054891241128</v>
       </c>
       <c r="D25">
-        <v>14.62976552137717</v>
+        <v>11.14560963429167</v>
       </c>
       <c r="E25">
-        <v>15.54216321542701</v>
+        <v>10.84251421165051</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>57.138017124954</v>
+        <v>48.53294295275026</v>
       </c>
       <c r="H25">
-        <v>21.21636058129284</v>
+        <v>14.73233411804961</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.086358548756357</v>
+        <v>5.198151920941595</v>
       </c>
       <c r="K25">
-        <v>14.55367932519197</v>
+        <v>13.45622905916343</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.26032447319684</v>
+        <v>14.36741935118596</v>
       </c>
       <c r="N25">
-        <v>23.46127385741722</v>
+        <v>15.69808129825959</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_62/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.55306714349761</v>
+        <v>21.3923506909902</v>
       </c>
       <c r="C2">
-        <v>7.646945822028389</v>
+        <v>15.2577535626715</v>
       </c>
       <c r="D2">
-        <v>10.64652807088447</v>
+        <v>7.131600383561596</v>
       </c>
       <c r="E2">
-        <v>10.48935803347531</v>
+        <v>8.837711559867218</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>46.77175134411471</v>
+        <v>22.00933509941257</v>
       </c>
       <c r="H2">
-        <v>14.54329677663039</v>
+        <v>2.058697146414034</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.646883451852224</v>
       </c>
       <c r="J2">
-        <v>5.21592936537896</v>
+        <v>8.687522436443645</v>
       </c>
       <c r="K2">
-        <v>12.51683898433415</v>
+        <v>13.72665010204419</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.67996330900782</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>15.91920237754517</v>
+        <v>6.737088454171541</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>12.66521282241448</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>14.18703361692803</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.70615451094631</v>
+        <v>19.9999427243105</v>
       </c>
       <c r="C3">
-        <v>7.10552464339199</v>
+        <v>14.59297622809327</v>
       </c>
       <c r="D3">
-        <v>10.31080540114064</v>
+        <v>6.643081595314741</v>
       </c>
       <c r="E3">
-        <v>10.25798464847988</v>
+        <v>8.774107441829708</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>45.6255878189782</v>
+        <v>21.51653356957456</v>
       </c>
       <c r="H3">
-        <v>14.43329305837739</v>
+        <v>2.252510494996915</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.809027879688445</v>
       </c>
       <c r="J3">
-        <v>5.231557959602445</v>
+        <v>8.708118419116234</v>
       </c>
       <c r="K3">
-        <v>11.85665150253502</v>
+        <v>13.91874167644029</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.21377927882654</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>16.07847422627497</v>
+        <v>6.573852561883223</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>12.00395350114608</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>14.10932152507621</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.16852529237715</v>
+        <v>19.09282847641925</v>
       </c>
       <c r="C4">
-        <v>6.75543341907759</v>
+        <v>14.17108909057436</v>
       </c>
       <c r="D4">
-        <v>10.10648082247398</v>
+        <v>6.325815009976804</v>
       </c>
       <c r="E4">
-        <v>10.12007464930445</v>
+        <v>8.733639252538905</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>44.94586822051881</v>
+        <v>21.22387677724321</v>
       </c>
       <c r="H4">
-        <v>14.37425266722284</v>
+        <v>2.375624681827038</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.912885944093227</v>
       </c>
       <c r="J4">
-        <v>5.242862129576119</v>
+        <v>8.724626847025952</v>
       </c>
       <c r="K4">
-        <v>11.44070534635437</v>
+        <v>14.04184157978578</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.92826846316106</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>16.1807599959558</v>
+        <v>6.471697008918582</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>11.57918332187942</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>14.06945739921833</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.94520632941387</v>
+        <v>18.70973608451829</v>
       </c>
       <c r="C5">
-        <v>6.608281671815354</v>
+        <v>14.00489203170763</v>
       </c>
       <c r="D5">
-        <v>10.02376727987214</v>
+        <v>6.202760766537831</v>
       </c>
       <c r="E5">
-        <v>10.0649554113317</v>
+        <v>8.716113710646404</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>44.67502204160647</v>
+        <v>21.09126401605542</v>
       </c>
       <c r="H5">
-        <v>14.35226731194134</v>
+        <v>2.427110014616898</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.959161649875564</v>
       </c>
       <c r="J5">
-        <v>5.247890067882388</v>
+        <v>8.729721518532402</v>
       </c>
       <c r="K5">
-        <v>11.26873755899899</v>
+        <v>14.08802498984236</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.81225034697503</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>16.2235518466548</v>
+        <v>6.430075647344136</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>11.4020592796566</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>14.04861382234129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.90787570522399</v>
+        <v>18.64497751013053</v>
       </c>
       <c r="C6">
-        <v>6.583574938864197</v>
+        <v>13.98818409484554</v>
       </c>
       <c r="D6">
-        <v>10.0100688894253</v>
+        <v>6.183669108990716</v>
       </c>
       <c r="E6">
-        <v>10.05586917005112</v>
+        <v>8.712369969414251</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>44.63042224226184</v>
+        <v>21.04990676264973</v>
       </c>
       <c r="H6">
-        <v>14.34874004203426</v>
+        <v>2.436046982787948</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.97060345223835</v>
       </c>
       <c r="J6">
-        <v>5.248750174674128</v>
+        <v>8.727477121330029</v>
       </c>
       <c r="K6">
-        <v>11.24003998253547</v>
+        <v>14.0893712971171</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.79301006227439</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>16.23072388008123</v>
+        <v>6.423701627428984</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>11.37305500879801</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>14.03729499881066</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.16553036315704</v>
+        <v>19.08678009659605</v>
       </c>
       <c r="C7">
-        <v>6.753467105587914</v>
+        <v>14.19875602824357</v>
       </c>
       <c r="D7">
-        <v>10.10536296033512</v>
+        <v>6.32397478708195</v>
       </c>
       <c r="E7">
-        <v>10.11932687174502</v>
+        <v>8.731240363198509</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>44.94219048235445</v>
+        <v>21.16923272827172</v>
       </c>
       <c r="H7">
-        <v>14.37394785227944</v>
+        <v>2.377179984557359</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.923287484678239</v>
       </c>
       <c r="J7">
-        <v>5.242928242322151</v>
+        <v>8.716111339750125</v>
       </c>
       <c r="K7">
-        <v>11.43839582670227</v>
+        <v>14.02497191470583</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.92670226420171</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>16.18133263374584</v>
+        <v>6.472672655640872</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>11.57862407514622</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>14.04745652820694</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.26481411542156</v>
+        <v>20.92192159109758</v>
       </c>
       <c r="C8">
-        <v>7.46389915082205</v>
+        <v>15.06932193766758</v>
       </c>
       <c r="D8">
-        <v>10.53045019696927</v>
+        <v>6.966660881331056</v>
       </c>
       <c r="E8">
-        <v>10.40873969727707</v>
+        <v>8.813434601454436</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>46.37162953929904</v>
+        <v>21.76953069604792</v>
       </c>
       <c r="H8">
-        <v>14.50356464268863</v>
+        <v>2.12573920807692</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.714546916053447</v>
       </c>
       <c r="J8">
-        <v>5.220958552546449</v>
+        <v>8.682515533064352</v>
       </c>
       <c r="K8">
-        <v>12.29150965404482</v>
+        <v>13.76861245707458</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.51915614986699</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>15.97317406965542</v>
+        <v>6.683236383598184</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>12.44338352428064</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>14.1301851938334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.27429185699356</v>
+        <v>24.10982645458994</v>
       </c>
       <c r="C9">
-        <v>8.719245093725075</v>
+        <v>16.61295246615644</v>
       </c>
       <c r="D9">
-        <v>11.37462432545413</v>
+        <v>8.090931424390131</v>
       </c>
       <c r="E9">
-        <v>11.00771816962605</v>
+        <v>8.967349547763668</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>49.36104349486126</v>
+        <v>23.11204018513181</v>
       </c>
       <c r="H9">
-        <v>14.82804267754998</v>
+        <v>1.663178359944998</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.629297104234969</v>
       </c>
       <c r="J9">
-        <v>5.191818665931817</v>
+        <v>8.663934712218724</v>
       </c>
       <c r="K9">
-        <v>13.94847830337695</v>
+        <v>13.33995964339061</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.68099698694612</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>15.60166720055943</v>
+        <v>7.076794480612365</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>13.98288435744798</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>14.39524696273538</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.77993683498092</v>
+        <v>26.21976239298387</v>
       </c>
       <c r="C10">
-        <v>9.560970284367389</v>
+        <v>17.77807194434674</v>
       </c>
       <c r="D10">
-        <v>11.99693764548646</v>
+        <v>8.835289748337019</v>
       </c>
       <c r="E10">
-        <v>11.46511644647149</v>
+        <v>9.068897772908281</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>51.66609025775731</v>
+        <v>23.88785893421302</v>
       </c>
       <c r="H10">
-        <v>15.1132031463922</v>
+        <v>1.768767907107526</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.890328659079313</v>
       </c>
       <c r="J10">
-        <v>5.179487072696979</v>
+        <v>8.627108850594155</v>
       </c>
       <c r="K10">
-        <v>15.28221479352695</v>
+        <v>12.96591795787567</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.52813399200861</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>15.35280233189426</v>
+        <v>7.25719720254533</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>14.94492613639224</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>14.52214182302621</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.45382674264097</v>
+        <v>27.27051075142672</v>
       </c>
       <c r="C11">
-        <v>9.927225164170872</v>
+        <v>19.14080481443524</v>
       </c>
       <c r="D11">
-        <v>12.27981381584002</v>
+        <v>9.153606857297689</v>
       </c>
       <c r="E11">
-        <v>11.67665718941998</v>
+        <v>9.305554697392273</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>52.73775421664428</v>
+        <v>22.22453473619059</v>
       </c>
       <c r="H11">
-        <v>15.25394244189551</v>
+        <v>2.737572007146543</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.981089581814735</v>
       </c>
       <c r="J11">
-        <v>5.175987067948259</v>
+        <v>8.251623647444502</v>
       </c>
       <c r="K11">
-        <v>15.86168202170462</v>
+        <v>12.12375272407222</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.91110885501757</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>15.24528566380804</v>
+        <v>6.545578522084837</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>14.74732640413327</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>13.69411463192223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.70469042648456</v>
+        <v>27.73333797894832</v>
       </c>
       <c r="C12">
-        <v>10.06359656755567</v>
+        <v>20.04057594731405</v>
       </c>
       <c r="D12">
-        <v>12.38686022064921</v>
+        <v>9.270743487690286</v>
       </c>
       <c r="E12">
-        <v>11.75724289060992</v>
+        <v>9.77924897026446</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>53.14687822217032</v>
+        <v>20.69870579534324</v>
       </c>
       <c r="H12">
-        <v>15.30889390877484</v>
+        <v>4.057880368755605</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.002615841778607</v>
       </c>
       <c r="J12">
-        <v>5.174977687603226</v>
+        <v>7.953088513169876</v>
       </c>
       <c r="K12">
-        <v>16.07729939619266</v>
+        <v>11.56890765880378</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.05572915570371</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>15.20543818801925</v>
+        <v>5.983251774075877</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>14.37143786047764</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>12.99022619176972</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.650853011468</v>
+        <v>27.78635726779902</v>
       </c>
       <c r="C13">
-        <v>10.0343285626906</v>
+        <v>20.69481732725619</v>
       </c>
       <c r="D13">
-        <v>12.36380960159968</v>
+        <v>9.243629399936761</v>
       </c>
       <c r="E13">
-        <v>11.73986619622972</v>
+        <v>10.41609384977183</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>53.05861863765922</v>
+        <v>19.07925634206992</v>
       </c>
       <c r="H13">
-        <v>15.29698426512354</v>
+        <v>5.462296991620657</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.976597720319107</v>
       </c>
       <c r="J13">
-        <v>5.175180809755899</v>
+        <v>7.682942817963425</v>
       </c>
       <c r="K13">
-        <v>16.03103021951634</v>
+        <v>11.18766761341283</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.02460129118155</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>15.21398066104054</v>
+        <v>5.523484782105944</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>13.82718618942452</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>12.30272618271066</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.47455148398196</v>
+        <v>27.63895370050447</v>
       </c>
       <c r="C14">
-        <v>9.938490605911314</v>
+        <v>21.05857039697039</v>
       </c>
       <c r="D14">
-        <v>12.28862223096495</v>
+        <v>9.159043010435349</v>
       </c>
       <c r="E14">
-        <v>11.68327748814979</v>
+        <v>10.94735513670199</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>52.77134670757577</v>
+        <v>17.8806154665252</v>
       </c>
       <c r="H14">
-        <v>15.25842970676739</v>
+        <v>6.487831193467193</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.938211762662396</v>
       </c>
       <c r="J14">
-        <v>5.175897616647916</v>
+        <v>7.506829534403153</v>
       </c>
       <c r="K14">
-        <v>15.87949680667353</v>
+        <v>11.01302722939244</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.92301522156824</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>15.24198971529155</v>
+        <v>5.27824705745951</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>13.36296063089289</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>11.82641084035431</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.36600181789691</v>
+        <v>27.51421500715687</v>
       </c>
       <c r="C15">
-        <v>9.879487046760033</v>
+        <v>21.10384339594474</v>
       </c>
       <c r="D15">
-        <v>12.24255734522477</v>
+        <v>9.107250222587183</v>
       </c>
       <c r="E15">
-        <v>11.64867732631789</v>
+        <v>11.07607719231855</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>52.59581555921771</v>
+        <v>17.55379355038913</v>
       </c>
       <c r="H15">
-        <v>15.23503185810302</v>
+        <v>6.725358642493743</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.919690146152789</v>
       </c>
       <c r="J15">
-        <v>5.176378225560276</v>
+        <v>7.468013823334227</v>
       </c>
       <c r="K15">
-        <v>15.78618473652464</v>
+        <v>10.99847168950241</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.86073677842443</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>15.25926049904398</v>
+        <v>5.230141025484981</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>13.2138571966979</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>11.70895373968906</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.73528573425823</v>
+        <v>26.65088489700118</v>
       </c>
       <c r="C16">
-        <v>9.536705718072316</v>
+        <v>20.54574935741347</v>
       </c>
       <c r="D16">
-        <v>11.97844278935501</v>
+        <v>8.806722033771225</v>
       </c>
       <c r="E16">
-        <v>11.45135976211157</v>
+        <v>10.89482360558283</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>51.59651710128585</v>
+        <v>17.44285260502474</v>
       </c>
       <c r="H16">
-        <v>15.10423331031545</v>
+        <v>6.517192093197684</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.815197547477959</v>
       </c>
       <c r="J16">
-        <v>5.179759315053029</v>
+        <v>7.534098142128874</v>
       </c>
       <c r="K16">
-        <v>15.24380559322456</v>
+        <v>11.24004736475666</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.50305195992765</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>15.35994730659907</v>
+        <v>5.235794641702205</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>12.89089383955708</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>11.7723741296794</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.34054915802333</v>
+        <v>26.05494632919499</v>
       </c>
       <c r="C17">
-        <v>9.322205974729746</v>
+        <v>19.90688124933324</v>
       </c>
       <c r="D17">
-        <v>11.81632752547913</v>
+        <v>8.618396664429758</v>
       </c>
       <c r="E17">
-        <v>11.33118431365118</v>
+        <v>10.45143025694115</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>50.98937157603223</v>
+        <v>18.01335094628348</v>
       </c>
       <c r="H17">
-        <v>15.02686502540474</v>
+        <v>5.780531713848343</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.75566042030816</v>
       </c>
       <c r="J17">
-        <v>5.182382518419125</v>
+        <v>7.677285528246018</v>
       </c>
       <c r="K17">
-        <v>14.90416498575822</v>
+        <v>11.50744883169612</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.28296217896723</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>15.42320553820048</v>
+        <v>5.356750804479581</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>12.89779087815217</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>12.07417935832609</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.11060434909223</v>
+        <v>25.63551189714943</v>
       </c>
       <c r="C18">
-        <v>9.197259500261145</v>
+        <v>19.11582125858715</v>
       </c>
       <c r="D18">
-        <v>11.72306428534871</v>
+        <v>8.50929020515253</v>
       </c>
       <c r="E18">
-        <v>11.26238970715752</v>
+        <v>9.827263941157021</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>50.64232892775653</v>
+        <v>19.26306399885397</v>
       </c>
       <c r="H18">
-        <v>14.98339746434995</v>
+        <v>4.52678149150901</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.726036674507659</v>
       </c>
       <c r="J18">
-        <v>5.184089077949083</v>
+        <v>7.910192890387924</v>
       </c>
       <c r="K18">
-        <v>14.70624048091688</v>
+        <v>11.87233122113686</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.15614954651484</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>15.46012258598901</v>
+        <v>5.663852127799308</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>13.1898523837605</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>12.63079925653576</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.03224757231201</v>
+        <v>25.39578455425174</v>
       </c>
       <c r="C19">
-        <v>9.154682672286414</v>
+        <v>18.33845665049973</v>
       </c>
       <c r="D19">
-        <v>11.69148521175104</v>
+        <v>8.473410478384237</v>
       </c>
       <c r="E19">
-        <v>11.23915391651647</v>
+        <v>9.289951439656049</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>50.52520022426746</v>
+        <v>20.86923689022562</v>
       </c>
       <c r="H19">
-        <v>14.96885530498818</v>
+        <v>3.036489298098683</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.735263496594648</v>
       </c>
       <c r="J19">
-        <v>5.184700487095405</v>
+        <v>8.188149481582442</v>
       </c>
       <c r="K19">
-        <v>14.63878178651667</v>
+        <v>12.3203664248545</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.11317685849286</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>15.47271218762067</v>
+        <v>6.188405482180497</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>13.68450845669419</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>13.32078430405019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.38286927706206</v>
+        <v>25.68108476438932</v>
       </c>
       <c r="C20">
-        <v>9.345202014824302</v>
+        <v>17.56218366104779</v>
       </c>
       <c r="D20">
-        <v>11.83358726545152</v>
+        <v>8.645029248792707</v>
       </c>
       <c r="E20">
-        <v>11.3439434988879</v>
+        <v>9.037401563688592</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>51.05377874135071</v>
+        <v>23.52470621159024</v>
       </c>
       <c r="H20">
-        <v>15.03499362628419</v>
+        <v>1.685002579259959</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.83381840086198</v>
       </c>
       <c r="J20">
-        <v>5.182082718045137</v>
+        <v>8.607430223350889</v>
       </c>
       <c r="K20">
-        <v>14.94058578531557</v>
+        <v>13.00433921821652</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.30641467100895</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>15.41641614552986</v>
+        <v>7.210428032600396</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>14.69959325865558</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>14.41723022321712</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.52645199966636</v>
+        <v>27.19669351725165</v>
       </c>
       <c r="C21">
-        <v>9.96670292682281</v>
+        <v>18.2685107473985</v>
       </c>
       <c r="D21">
-        <v>12.31070881594677</v>
+        <v>9.191601353777489</v>
       </c>
       <c r="E21">
-        <v>11.69988605373752</v>
+        <v>9.122701946628876</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>52.85563553325245</v>
+        <v>24.5186329914146</v>
       </c>
       <c r="H21">
-        <v>15.26970856457802</v>
+        <v>1.926274476246152</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.034117112285331</v>
       </c>
       <c r="J21">
-        <v>5.17567839137579</v>
+        <v>8.65506759151298</v>
       </c>
       <c r="K21">
-        <v>15.92410848495851</v>
+        <v>12.86098029941349</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.95286485344305</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>15.2337388338552</v>
+        <v>7.495489670960774</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>15.51602333550105</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>14.69811154841563</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.24870264088707</v>
+        <v>28.15244370959651</v>
       </c>
       <c r="C22">
-        <v>10.35939735352973</v>
+        <v>18.73242934485146</v>
       </c>
       <c r="D22">
-        <v>12.62210283239772</v>
+        <v>9.534456835304212</v>
       </c>
       <c r="E22">
-        <v>11.93530879455036</v>
+        <v>9.177070264845357</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>54.05256257217422</v>
+        <v>25.1139344384645</v>
       </c>
       <c r="H22">
-        <v>15.43280024933633</v>
+        <v>2.078101738728327</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.156948033954929</v>
       </c>
       <c r="J22">
-        <v>5.17334127303783</v>
+        <v>8.680767679121747</v>
       </c>
       <c r="K22">
-        <v>16.54471947570278</v>
+        <v>12.75670327689722</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.37298951795615</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>15.11942855679383</v>
+        <v>7.627180591032253</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>15.99241047135018</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>14.86485507461672</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.86548832765482</v>
+        <v>27.64717365359286</v>
       </c>
       <c r="C23">
-        <v>10.15101777561052</v>
+        <v>18.45720513313669</v>
       </c>
       <c r="D23">
-        <v>12.45595552331235</v>
+        <v>9.352836978266698</v>
       </c>
       <c r="E23">
-        <v>11.80940780124065</v>
+        <v>9.149906696525127</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>53.41196547176463</v>
+        <v>24.8486720302102</v>
       </c>
       <c r="H23">
-        <v>15.34484352820265</v>
+        <v>1.998052156056525</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.087344672060905</v>
       </c>
       <c r="J23">
-        <v>5.174415057585832</v>
+        <v>8.676418943417682</v>
       </c>
       <c r="K23">
-        <v>16.2154801547648</v>
+        <v>12.83269388410743</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.14899225604132</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>15.17995543281574</v>
+        <v>7.555437707053564</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>15.73835078487205</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>14.79886896180542</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.36374572013913</v>
+        <v>25.64330766940312</v>
       </c>
       <c r="C24">
-        <v>9.334810580501085</v>
+        <v>17.43012820555635</v>
       </c>
       <c r="D24">
-        <v>11.82578432373609</v>
+        <v>8.63624886979234</v>
       </c>
       <c r="E24">
-        <v>11.33817414816618</v>
+        <v>9.042743867652073</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>51.02465398910812</v>
+        <v>23.77427353180756</v>
       </c>
       <c r="H24">
-        <v>15.03131553753428</v>
+        <v>1.687913739921734</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.826211558124011</v>
       </c>
       <c r="J24">
-        <v>5.182217640624747</v>
+        <v>8.653990272919931</v>
       </c>
       <c r="K24">
-        <v>14.92412823684716</v>
+        <v>13.10082034909367</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.29581266695587</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>15.41948392333786</v>
+        <v>7.281217757295588</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>14.74093092021839</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>14.52935596898759</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.74704915133601</v>
+        <v>23.2898962144035</v>
       </c>
       <c r="C25">
-        <v>8.394054891241128</v>
+        <v>16.25674289792637</v>
       </c>
       <c r="D25">
-        <v>11.14560963429167</v>
+        <v>7.801075373348662</v>
       </c>
       <c r="E25">
-        <v>10.84251421165051</v>
+        <v>8.923579228708652</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>48.53294295275026</v>
+        <v>22.65308919077465</v>
       </c>
       <c r="H25">
-        <v>14.73233411804961</v>
+        <v>1.786309524290566</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.536628989623216</v>
       </c>
       <c r="J25">
-        <v>5.198151920941595</v>
+        <v>8.650047478006917</v>
       </c>
       <c r="K25">
-        <v>13.45622905916343</v>
+        <v>13.41933431191608</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.36741935118596</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>15.69808129825959</v>
+        <v>6.974987718120707</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.58609559119403</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>14.27832110358058</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_62/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_62/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.3923506909902</v>
+        <v>21.42215688291235</v>
       </c>
       <c r="C2">
-        <v>15.2577535626715</v>
+        <v>15.37032416572803</v>
       </c>
       <c r="D2">
-        <v>7.131600383561596</v>
+        <v>7.133610959970166</v>
       </c>
       <c r="E2">
-        <v>8.837711559867218</v>
+        <v>8.743882917708321</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>22.00933509941257</v>
+        <v>20.62634994803803</v>
       </c>
       <c r="H2">
-        <v>2.058697146414034</v>
+        <v>2.001940689401195</v>
       </c>
       <c r="I2">
-        <v>2.646883451852224</v>
+        <v>2.573327338559693</v>
       </c>
       <c r="J2">
-        <v>8.687522436443645</v>
+        <v>9.062622882970244</v>
       </c>
       <c r="K2">
-        <v>13.72665010204419</v>
+        <v>13.32157229376917</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.41788206423677</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>8.263431900382702</v>
       </c>
       <c r="N2">
-        <v>6.737088454171541</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>12.66521282241448</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.821369532144413</v>
       </c>
       <c r="Q2">
-        <v>14.18703361692803</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>12.68401168217284</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>13.85497829576422</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.9999427243105</v>
+        <v>20.03884504408354</v>
       </c>
       <c r="C3">
-        <v>14.59297622809327</v>
+        <v>14.60607022269107</v>
       </c>
       <c r="D3">
-        <v>6.643081595314741</v>
+        <v>6.6458790295363</v>
       </c>
       <c r="E3">
-        <v>8.774107441829708</v>
+        <v>8.688407011320418</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>21.51653356957456</v>
+        <v>20.23105186698169</v>
       </c>
       <c r="H3">
-        <v>2.252510494996915</v>
+        <v>2.18201994025671</v>
       </c>
       <c r="I3">
-        <v>2.809027879688445</v>
+        <v>2.718008292804749</v>
       </c>
       <c r="J3">
-        <v>8.708118419116234</v>
+        <v>9.06292631252243</v>
       </c>
       <c r="K3">
-        <v>13.91874167644029</v>
+        <v>13.53109335215847</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.61422531930671</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>8.413185355480564</v>
       </c>
       <c r="N3">
-        <v>6.573852561883223</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>12.00395350114608</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.663970474914767</v>
       </c>
       <c r="Q3">
-        <v>14.10932152507621</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>12.0165511044692</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>13.81281312129682</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.09282847641925</v>
+        <v>19.13775373711416</v>
       </c>
       <c r="C4">
-        <v>14.17108909057436</v>
+        <v>14.12019244704078</v>
       </c>
       <c r="D4">
-        <v>6.325815009976804</v>
+        <v>6.329030890805415</v>
       </c>
       <c r="E4">
-        <v>8.733639252538905</v>
+        <v>8.653260283236719</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>21.22387677724321</v>
+        <v>20.00049188364637</v>
       </c>
       <c r="H4">
-        <v>2.375624681827038</v>
+        <v>2.296443731672261</v>
       </c>
       <c r="I4">
-        <v>2.912885944093227</v>
+        <v>2.811020198834314</v>
       </c>
       <c r="J4">
-        <v>8.724626847025952</v>
+        <v>9.064634281923192</v>
       </c>
       <c r="K4">
-        <v>14.04184157978578</v>
+        <v>13.66352795993891</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.73857608283748</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>8.524286844858336</v>
       </c>
       <c r="N4">
-        <v>6.471697008918582</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>11.57918332187942</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.565806772252297</v>
       </c>
       <c r="Q4">
-        <v>14.06945739921833</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>11.58745733228317</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>13.79329026656454</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.70973608451829</v>
+        <v>18.75724202333044</v>
       </c>
       <c r="C5">
-        <v>14.00489203170763</v>
+        <v>13.92738321257388</v>
       </c>
       <c r="D5">
-        <v>6.202760766537831</v>
+        <v>6.205152958227077</v>
       </c>
       <c r="E5">
-        <v>8.716113710646404</v>
+        <v>8.638076948659878</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>21.09126401605542</v>
+        <v>19.89387530873099</v>
       </c>
       <c r="H5">
-        <v>2.427110014616898</v>
+        <v>2.344314904754697</v>
       </c>
       <c r="I5">
-        <v>2.959161649875564</v>
+        <v>2.853348384508794</v>
       </c>
       <c r="J5">
-        <v>8.729721518532402</v>
+        <v>9.063255767564073</v>
       </c>
       <c r="K5">
-        <v>14.08802498984236</v>
+        <v>13.71353703104269</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.7853557175648</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>8.571813123683532</v>
       </c>
       <c r="N5">
-        <v>6.430075647344136</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>11.4020592796566</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.525892610008649</v>
       </c>
       <c r="Q5">
-        <v>14.04861382234129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>11.40842374269518</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>13.78060912249645</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.64497751013053</v>
+        <v>18.69292195998335</v>
       </c>
       <c r="C6">
-        <v>13.98818409484554</v>
+        <v>13.90639907680329</v>
       </c>
       <c r="D6">
-        <v>6.183669108990716</v>
+        <v>6.186072067916385</v>
       </c>
       <c r="E6">
-        <v>8.712369969414251</v>
+        <v>8.634837113362311</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>21.04990676264973</v>
+        <v>19.85714518132303</v>
       </c>
       <c r="H6">
-        <v>2.436046982787948</v>
+        <v>2.352640255813723</v>
       </c>
       <c r="I6">
-        <v>2.97060345223835</v>
+        <v>2.864799492462047</v>
       </c>
       <c r="J6">
-        <v>8.727477121330029</v>
+        <v>9.06005751183711</v>
       </c>
       <c r="K6">
-        <v>14.0893712971171</v>
+        <v>13.71592530419879</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.78726771003534</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>8.577047631234702</v>
       </c>
       <c r="N6">
-        <v>6.423701627428984</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>11.37305500879801</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.519779389377109</v>
       </c>
       <c r="Q6">
-        <v>14.03729499881066</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>11.37907338287341</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>13.77093231292543</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.08678009659605</v>
+        <v>19.13157650012002</v>
       </c>
       <c r="C7">
-        <v>14.19875602824357</v>
+        <v>14.14241948228073</v>
       </c>
       <c r="D7">
-        <v>6.32397478708195</v>
+        <v>6.327146073285044</v>
       </c>
       <c r="E7">
-        <v>8.731240363198509</v>
+        <v>8.65037303755382</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>21.16923272827172</v>
+        <v>20.02902618482639</v>
       </c>
       <c r="H7">
-        <v>2.377179984557359</v>
+        <v>2.298409328633146</v>
       </c>
       <c r="I7">
-        <v>2.923287484678239</v>
+        <v>2.823623798729052</v>
       </c>
       <c r="J7">
-        <v>8.716111339750125</v>
+        <v>9.018449575925519</v>
       </c>
       <c r="K7">
-        <v>14.02497191470583</v>
+        <v>13.64206231415543</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.71776775645795</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>8.513357866611869</v>
       </c>
       <c r="N7">
-        <v>6.472672655640872</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>11.57862407514622</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.566231718191492</v>
       </c>
       <c r="Q7">
-        <v>14.04745652820694</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>11.58665545780976</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>13.76019640254697</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.92192159109758</v>
+        <v>20.95428865461635</v>
       </c>
       <c r="C8">
-        <v>15.06932193766758</v>
+        <v>15.1313553913743</v>
       </c>
       <c r="D8">
-        <v>6.966660881331056</v>
+        <v>6.968793564033317</v>
       </c>
       <c r="E8">
-        <v>8.813434601454436</v>
+        <v>8.720230404101555</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>21.76953069604792</v>
+        <v>20.68789112718059</v>
       </c>
       <c r="H8">
-        <v>2.12573920807692</v>
+        <v>2.065746764544982</v>
       </c>
       <c r="I8">
-        <v>2.714546916053447</v>
+        <v>2.638795730805915</v>
       </c>
       <c r="J8">
-        <v>8.682515533064352</v>
+        <v>8.927581437875212</v>
       </c>
       <c r="K8">
-        <v>13.76861245707458</v>
+        <v>13.35252865032933</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.44914526172161</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>8.285169715610319</v>
       </c>
       <c r="N8">
-        <v>6.683236383598184</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>12.44338352428064</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.767797123741014</v>
       </c>
       <c r="Q8">
-        <v>14.1301851938334</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>12.45953529529615</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>13.77227677747226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.10982645458994</v>
+        <v>24.12133426896831</v>
       </c>
       <c r="C9">
-        <v>16.61295246615644</v>
+        <v>16.90223829683993</v>
       </c>
       <c r="D9">
-        <v>8.090931424390131</v>
+        <v>8.090633959256408</v>
       </c>
       <c r="E9">
-        <v>8.967349547763668</v>
+        <v>8.854874101598263</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>23.11204018513181</v>
+        <v>21.85944691653413</v>
       </c>
       <c r="H9">
-        <v>1.663178359944998</v>
+        <v>1.636364493821078</v>
       </c>
       <c r="I9">
-        <v>2.629297104234969</v>
+        <v>2.670838238227138</v>
       </c>
       <c r="J9">
-        <v>8.663934712218724</v>
+        <v>8.91161808269784</v>
       </c>
       <c r="K9">
-        <v>13.33995964339061</v>
+        <v>12.86535904794477</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.99752870268032</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>8.026926051025891</v>
       </c>
       <c r="N9">
-        <v>7.076794480612365</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>13.98288435744798</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.148796608602481</v>
       </c>
       <c r="Q9">
-        <v>14.39524696273538</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>14.01158620377895</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>13.92983375645961</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.21976239298387</v>
+        <v>26.21680533249452</v>
       </c>
       <c r="C10">
-        <v>17.77807194434674</v>
+        <v>18.18130070380953</v>
       </c>
       <c r="D10">
-        <v>8.835289748337019</v>
+        <v>8.832524330717179</v>
       </c>
       <c r="E10">
-        <v>9.068897772908281</v>
+        <v>8.947667774946133</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>23.88785893421302</v>
+        <v>22.97985191395698</v>
       </c>
       <c r="H10">
-        <v>1.768767907107526</v>
+        <v>1.770467921014278</v>
       </c>
       <c r="I10">
-        <v>2.890328659079313</v>
+        <v>2.903345717628141</v>
       </c>
       <c r="J10">
-        <v>8.627108850594155</v>
+        <v>8.664031014774643</v>
       </c>
       <c r="K10">
-        <v>12.96591795787567</v>
+        <v>12.42387971481346</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.61570213217905</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>7.849677960023466</v>
       </c>
       <c r="N10">
-        <v>7.25719720254533</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>14.94492613639224</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.318275407462188</v>
       </c>
       <c r="Q10">
-        <v>14.52214182302621</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>14.97866163313723</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>13.91813471208384</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.27051075142672</v>
+        <v>27.26327519145054</v>
       </c>
       <c r="C11">
-        <v>19.14080481443524</v>
+        <v>19.44949168617658</v>
       </c>
       <c r="D11">
-        <v>9.153606857297689</v>
+        <v>9.149460112785873</v>
       </c>
       <c r="E11">
-        <v>9.305554697392273</v>
+        <v>9.227350501761663</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>22.22453473619059</v>
+        <v>22.41490844045325</v>
       </c>
       <c r="H11">
-        <v>2.737572007146543</v>
+        <v>2.731489119450468</v>
       </c>
       <c r="I11">
-        <v>2.981089581814735</v>
+        <v>2.983549793000702</v>
       </c>
       <c r="J11">
-        <v>8.251623647444502</v>
+        <v>7.971102651334391</v>
       </c>
       <c r="K11">
-        <v>12.12375272407222</v>
+        <v>11.65092747532675</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.10132625360161</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>7.232893608336682</v>
       </c>
       <c r="N11">
-        <v>6.545578522084837</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>14.74732640413327</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6.588184529770165</v>
       </c>
       <c r="Q11">
-        <v>13.69411463192223</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>14.77486106130307</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>13.03050081068538</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.73333797894832</v>
+        <v>27.72568603542044</v>
       </c>
       <c r="C12">
-        <v>20.04057594731405</v>
+        <v>20.25281484844812</v>
       </c>
       <c r="D12">
-        <v>9.270743487690286</v>
+        <v>9.26612599659221</v>
       </c>
       <c r="E12">
-        <v>9.77924897026446</v>
+        <v>9.722704940212232</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>20.69870579534324</v>
+        <v>21.47847381344165</v>
       </c>
       <c r="H12">
-        <v>4.057880368755605</v>
+        <v>4.052304533895177</v>
       </c>
       <c r="I12">
-        <v>3.002615841778607</v>
+        <v>3.001026186289417</v>
       </c>
       <c r="J12">
-        <v>7.953088513169876</v>
+        <v>7.610836132081536</v>
       </c>
       <c r="K12">
-        <v>11.56890765880378</v>
+        <v>11.19175515840259</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.832511414164928</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>6.807955928943738</v>
       </c>
       <c r="N12">
-        <v>5.983251774075877</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>14.37143786047764</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.014068711833242</v>
       </c>
       <c r="Q12">
-        <v>12.99022619176972</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>14.39355526977666</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>12.34999154127646</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.78635726779902</v>
+        <v>27.78143997375824</v>
       </c>
       <c r="C13">
-        <v>20.69481732725619</v>
+        <v>20.81592577714744</v>
       </c>
       <c r="D13">
-        <v>9.243629399936761</v>
+        <v>9.239368584543907</v>
       </c>
       <c r="E13">
-        <v>10.41609384977183</v>
+        <v>10.37124449415308</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>19.07925634206992</v>
+        <v>19.9014841366023</v>
       </c>
       <c r="H13">
-        <v>5.462296991620657</v>
+        <v>5.4650575791472</v>
       </c>
       <c r="I13">
-        <v>2.976597720319107</v>
+        <v>2.978065450746347</v>
       </c>
       <c r="J13">
-        <v>7.682942817963425</v>
+        <v>7.485545247366099</v>
       </c>
       <c r="K13">
-        <v>11.18766761341283</v>
+        <v>10.9270544000861</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.694004429068936</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>6.513545310023194</v>
       </c>
       <c r="N13">
-        <v>5.523484782105944</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>13.82718618942452</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.548491417284223</v>
       </c>
       <c r="Q13">
-        <v>12.30272618271066</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>13.84426643597394</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>11.7785483752748</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.63895370050447</v>
+        <v>27.6373447451499</v>
       </c>
       <c r="C14">
-        <v>21.05857039697039</v>
+        <v>21.11691356309703</v>
       </c>
       <c r="D14">
-        <v>9.159043010435349</v>
+        <v>9.155389878558113</v>
       </c>
       <c r="E14">
-        <v>10.94735513670199</v>
+        <v>10.90582754727853</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>17.8806154665252</v>
+        <v>18.49130466896045</v>
       </c>
       <c r="H14">
-        <v>6.487831193467193</v>
+        <v>6.489132792368442</v>
       </c>
       <c r="I14">
-        <v>2.938211762662396</v>
+        <v>2.945308544672125</v>
       </c>
       <c r="J14">
-        <v>7.506829534403153</v>
+        <v>7.482075647285799</v>
       </c>
       <c r="K14">
-        <v>11.01302722939244</v>
+        <v>10.83019357249437</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.646661217256723</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>6.379643847469904</v>
       </c>
       <c r="N14">
-        <v>5.27824705745951</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>13.36296063089289</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.302355511873104</v>
       </c>
       <c r="Q14">
-        <v>11.82641084035431</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>13.37647812009621</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>11.42097143492695</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.51421500715687</v>
+        <v>27.51410597600182</v>
       </c>
       <c r="C15">
-        <v>21.10384339594474</v>
+        <v>21.14802753467833</v>
       </c>
       <c r="D15">
-        <v>9.107250222587183</v>
+        <v>9.103915917322858</v>
       </c>
       <c r="E15">
-        <v>11.07607719231855</v>
+        <v>11.03577027116943</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>17.55379355038913</v>
+        <v>18.01124592130087</v>
       </c>
       <c r="H15">
-        <v>6.725358642493743</v>
+        <v>6.726057937701174</v>
       </c>
       <c r="I15">
-        <v>2.919690146152789</v>
+        <v>2.930224629849112</v>
       </c>
       <c r="J15">
-        <v>7.468013823334227</v>
+        <v>7.516023498893758</v>
       </c>
       <c r="K15">
-        <v>10.99847168950241</v>
+        <v>10.83459073947418</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.648671605175288</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>6.370629283063221</v>
       </c>
       <c r="N15">
-        <v>5.230141025484981</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>13.2138571966979</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.255241991731393</v>
       </c>
       <c r="Q15">
-        <v>11.70895373968906</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>13.2264627180993</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>11.34820674469822</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.65088489700118</v>
+        <v>26.65732468364286</v>
       </c>
       <c r="C16">
-        <v>20.54574935741347</v>
+        <v>20.60151231160507</v>
       </c>
       <c r="D16">
-        <v>8.806722033771225</v>
+        <v>8.804930817701438</v>
       </c>
       <c r="E16">
-        <v>10.89482360558283</v>
+        <v>10.86486527822024</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>17.44285260502474</v>
+        <v>17.07327708085761</v>
       </c>
       <c r="H16">
-        <v>6.517192093197684</v>
+        <v>6.514674352802673</v>
       </c>
       <c r="I16">
-        <v>2.815197547477959</v>
+        <v>2.841135801097075</v>
       </c>
       <c r="J16">
-        <v>7.534098142128874</v>
+        <v>7.8558448445705</v>
       </c>
       <c r="K16">
-        <v>11.24004736475666</v>
+        <v>11.0857615860437</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.775363976476525</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>6.577504924677031</v>
       </c>
       <c r="N16">
-        <v>5.235794641702205</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>12.89089383955708</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.271023069883067</v>
       </c>
       <c r="Q16">
-        <v>11.7723741296794</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>12.90318295482464</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>11.53927431106745</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.05494632919499</v>
+        <v>26.06451800445996</v>
       </c>
       <c r="C17">
-        <v>19.90688124933324</v>
+        <v>19.99865388905421</v>
       </c>
       <c r="D17">
-        <v>8.618396664429758</v>
+        <v>8.617365185409708</v>
       </c>
       <c r="E17">
-        <v>10.45143025694115</v>
+        <v>10.42622656372205</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>18.01335094628348</v>
+        <v>17.24225749739573</v>
       </c>
       <c r="H17">
-        <v>5.780531713848343</v>
+        <v>5.775472924707596</v>
       </c>
       <c r="I17">
-        <v>2.75566042030816</v>
+        <v>2.790044079060166</v>
       </c>
       <c r="J17">
-        <v>7.677285528246018</v>
+        <v>8.103538368300054</v>
       </c>
       <c r="K17">
-        <v>11.50744883169612</v>
+        <v>11.32965548072468</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.914961679426042</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>6.789167006971179</v>
       </c>
       <c r="N17">
-        <v>5.356750804479581</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>12.89779087815217</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.399651684654507</v>
       </c>
       <c r="Q17">
-        <v>12.07417935832609</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>12.91164585464756</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>11.86334515546312</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.63551189714943</v>
+        <v>25.645691968195</v>
       </c>
       <c r="C18">
-        <v>19.11582125858715</v>
+        <v>19.27647016875887</v>
       </c>
       <c r="D18">
-        <v>8.50929020515253</v>
+        <v>8.508552240543425</v>
       </c>
       <c r="E18">
-        <v>9.827263941157021</v>
+        <v>9.798709547008375</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>19.26306399885397</v>
+        <v>18.23498443517007</v>
       </c>
       <c r="H18">
-        <v>4.52678149150901</v>
+        <v>4.519099051872828</v>
       </c>
       <c r="I18">
-        <v>2.726036674507659</v>
+        <v>2.762914367182164</v>
       </c>
       <c r="J18">
-        <v>7.910192890387924</v>
+        <v>8.353120122255328</v>
       </c>
       <c r="K18">
-        <v>11.87233122113686</v>
+        <v>11.63888508555801</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.11396069352432</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>7.057952190109431</v>
       </c>
       <c r="N18">
-        <v>5.663852127799308</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>13.1898523837605</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5.7141071683537</v>
       </c>
       <c r="Q18">
-        <v>12.63079925653576</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>13.20766936725077</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>12.37832341058975</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.39578455425174</v>
+        <v>25.40445725891786</v>
       </c>
       <c r="C19">
-        <v>18.33845665049973</v>
+        <v>18.58762353896827</v>
       </c>
       <c r="D19">
-        <v>8.473410478384237</v>
+        <v>8.47260162205041</v>
       </c>
       <c r="E19">
-        <v>9.289951439656049</v>
+        <v>9.241146754014828</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>20.86923689022562</v>
+        <v>19.64648893391058</v>
       </c>
       <c r="H19">
-        <v>3.036489298098683</v>
+        <v>3.025626096914352</v>
       </c>
       <c r="I19">
-        <v>2.735263496594648</v>
+        <v>2.772070463776375</v>
       </c>
       <c r="J19">
-        <v>8.188149481582442</v>
+        <v>8.598798405012158</v>
       </c>
       <c r="K19">
-        <v>12.3203664248545</v>
+        <v>12.00254332801013</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.36082655834061</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>7.374477701390261</v>
       </c>
       <c r="N19">
-        <v>6.188405482180497</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>13.68450845669419</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.245966992494587</v>
       </c>
       <c r="Q19">
-        <v>13.32078430405019</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>13.70794375919654</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>12.98794651736384</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.68108476438932</v>
+        <v>25.68239170865942</v>
       </c>
       <c r="C20">
-        <v>17.56218366104779</v>
+        <v>17.95287711411454</v>
       </c>
       <c r="D20">
-        <v>8.645029248792707</v>
+        <v>8.643148887714236</v>
       </c>
       <c r="E20">
-        <v>9.037401563688592</v>
+        <v>8.922427747192401</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>23.52470621159024</v>
+        <v>22.26288442178016</v>
       </c>
       <c r="H20">
-        <v>1.685002579259959</v>
+        <v>1.694411843141994</v>
       </c>
       <c r="I20">
-        <v>2.83381840086198</v>
+        <v>2.859125039541893</v>
       </c>
       <c r="J20">
-        <v>8.607430223350889</v>
+        <v>8.831706494314115</v>
       </c>
       <c r="K20">
-        <v>13.00433921821652</v>
+        <v>12.50803312131078</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.6928777792379</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>7.863467298608325</v>
       </c>
       <c r="N20">
-        <v>7.210428032600396</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>14.69959325865558</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.275534807375085</v>
       </c>
       <c r="Q20">
-        <v>14.41723022321712</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>14.7325684850245</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>13.89530731843904</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.19669351725165</v>
+        <v>27.18440529159041</v>
       </c>
       <c r="C21">
-        <v>18.2685107473985</v>
+        <v>18.67513877830791</v>
       </c>
       <c r="D21">
-        <v>9.191601353777489</v>
+        <v>9.186617410843782</v>
       </c>
       <c r="E21">
-        <v>9.122701946628876</v>
+        <v>8.978237638885513</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>24.5186329914146</v>
+        <v>24.88012686898186</v>
       </c>
       <c r="H21">
-        <v>1.926274476246152</v>
+        <v>1.910318551846909</v>
       </c>
       <c r="I21">
-        <v>3.034117112285331</v>
+        <v>3.0301660816361</v>
       </c>
       <c r="J21">
-        <v>8.65506759151298</v>
+        <v>8.077520558234916</v>
       </c>
       <c r="K21">
-        <v>12.86098029941349</v>
+        <v>12.17617660823827</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.41505074379566</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>7.753581950683866</v>
       </c>
       <c r="N21">
-        <v>7.495489670960774</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>15.51602333550105</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7.547054563227043</v>
       </c>
       <c r="Q21">
-        <v>14.69811154841563</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>15.55013338078674</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>13.82940197881361</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.15244370959651</v>
+        <v>28.13163193855863</v>
       </c>
       <c r="C22">
-        <v>18.73242934485146</v>
+        <v>19.13831415965556</v>
       </c>
       <c r="D22">
-        <v>9.534456835304212</v>
+        <v>9.527316319963326</v>
       </c>
       <c r="E22">
-        <v>9.177070264845357</v>
+        <v>9.017542002503378</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>25.1139344384645</v>
+        <v>26.63528659259957</v>
       </c>
       <c r="H22">
-        <v>2.078101738728327</v>
+        <v>2.046047586383051</v>
       </c>
       <c r="I22">
-        <v>3.156948033954929</v>
+        <v>3.133131371741336</v>
       </c>
       <c r="J22">
-        <v>8.680767679121747</v>
+        <v>7.602161121060501</v>
       </c>
       <c r="K22">
-        <v>12.75670327689722</v>
+        <v>11.94097437685259</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.22867198498011</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>7.677061410076223</v>
       </c>
       <c r="N22">
-        <v>7.627180591032253</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>15.99241047135018</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>7.669481666370216</v>
       </c>
       <c r="Q22">
-        <v>14.86485507461672</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>16.02617400205441</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>13.75616140725289</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.64717365359286</v>
+        <v>27.63111493446753</v>
       </c>
       <c r="C23">
-        <v>18.45720513313669</v>
+        <v>18.87461107578511</v>
       </c>
       <c r="D23">
-        <v>9.352836978266698</v>
+        <v>9.346975810554316</v>
       </c>
       <c r="E23">
-        <v>9.149906696525127</v>
+        <v>8.999168827367395</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>24.8486720302102</v>
+        <v>25.55668224940849</v>
       </c>
       <c r="H23">
-        <v>1.998052156056525</v>
+        <v>1.975294410660953</v>
       </c>
       <c r="I23">
-        <v>3.087344672060905</v>
+        <v>3.073476361619754</v>
       </c>
       <c r="J23">
-        <v>8.676418943417682</v>
+        <v>7.930003542967875</v>
       </c>
       <c r="K23">
-        <v>12.83269388410743</v>
+        <v>12.09888494082819</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.34668978177259</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>7.748043650606968</v>
       </c>
       <c r="N23">
-        <v>7.555437707053564</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>15.73835078487205</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>7.603692093517058</v>
       </c>
       <c r="Q23">
-        <v>14.79886896180542</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>15.77284717445855</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>13.84744353191076</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.64330766940312</v>
+        <v>25.6444745775806</v>
       </c>
       <c r="C24">
-        <v>17.43012820555635</v>
+        <v>17.82777871422589</v>
       </c>
       <c r="D24">
-        <v>8.63624886979234</v>
+        <v>8.634365887276793</v>
       </c>
       <c r="E24">
-        <v>9.042743867652073</v>
+        <v>8.921394518535644</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>23.77427353180756</v>
+        <v>22.47923276558628</v>
       </c>
       <c r="H24">
-        <v>1.687913739921734</v>
+        <v>1.697370526490697</v>
       </c>
       <c r="I24">
-        <v>2.826211558124011</v>
+        <v>2.849318997677114</v>
       </c>
       <c r="J24">
-        <v>8.653990272919931</v>
+        <v>8.87769796909557</v>
       </c>
       <c r="K24">
-        <v>13.10082034909367</v>
+        <v>12.59005365976595</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.74923300777032</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>7.933185037503596</v>
       </c>
       <c r="N24">
-        <v>7.281217757295588</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>14.74093092021839</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.347420531885282</v>
       </c>
       <c r="Q24">
-        <v>14.52935596898759</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>14.77455068517541</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>13.9986311637763</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.2898962144035</v>
+        <v>23.30702820589755</v>
       </c>
       <c r="C25">
-        <v>16.25674289792637</v>
+        <v>16.49484486107072</v>
       </c>
       <c r="D25">
-        <v>7.801075373348662</v>
+        <v>7.801583009084068</v>
       </c>
       <c r="E25">
-        <v>8.923579228708652</v>
+        <v>8.817815016655741</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>22.65308919077465</v>
+        <v>21.33549030276669</v>
       </c>
       <c r="H25">
-        <v>1.786309524290566</v>
+        <v>1.750090987350806</v>
       </c>
       <c r="I25">
-        <v>2.536628989623216</v>
+        <v>2.59109336069072</v>
       </c>
       <c r="J25">
-        <v>8.650047478006917</v>
+        <v>8.953282729166775</v>
       </c>
       <c r="K25">
-        <v>13.41933431191608</v>
+        <v>12.97354260236077</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.10125718270594</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>8.062829676886404</v>
       </c>
       <c r="N25">
-        <v>6.974987718120707</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>13.58609559119403</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.050580735766044</v>
       </c>
       <c r="Q25">
-        <v>14.27832110358058</v>
+        <v>13.61197866890968</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>13.86179266033172</v>
       </c>
     </row>
   </sheetData>
